--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>组件名称</t>
   </si>
@@ -40,6 +40,9 @@
     <t>是否review</t>
   </si>
   <si>
+    <t>示例下载链接</t>
+  </si>
+  <si>
     <t>do_3DTouch</t>
   </si>
   <si>
@@ -302,6 +305,9 @@
   </si>
   <si>
     <t>祝钰</t>
+  </si>
+  <si>
+    <t>http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip</t>
   </si>
   <si>
     <t>do_TencentQQ</t>
@@ -414,12 +420,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,10 +434,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,22 +451,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,7 +496,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,15 +556,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,51 +570,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -570,14 +577,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -600,31 +599,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,31 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,115 +767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,24 +790,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -823,6 +804,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,11 +841,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,21 +872,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,10 +898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,16 +910,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,135 +928,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,23 +1377,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="76.125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1416,623 +1419,630 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B87" r:id="rId1" display="http://doc.deviceone.net/web/doc/detail_course/components/do_SwitchView.htm"/>
+    <hyperlink ref="I87" r:id="rId2" display="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\do\sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="组件类型" sheetId="2" r:id="rId2"/>
+    <sheet name="新增" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">组件类型!$A$1:$G$122</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="370">
   <si>
     <t>组件名称</t>
   </si>
@@ -413,19 +423,833 @@
   </si>
   <si>
     <t>M2590_PickerView</t>
+  </si>
+  <si>
+    <t>崔杏杏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DTouch</t>
+  </si>
+  <si>
+    <t>SM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度传感器</t>
+  </si>
+  <si>
+    <t>SM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓ios winph winpc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对布局</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓ios winph winpc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Album</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册</t>
+  </si>
+  <si>
+    <t>安卓ios winph winpc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用算法</t>
+  </si>
+  <si>
+    <t>do_Alipay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝支付</t>
+  </si>
+  <si>
+    <t>安卓IOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓IOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画组合</t>
+  </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性动画组合</t>
+  </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用类</t>
+  </si>
+  <si>
+    <t>Apple应用内支付</t>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助按钮</t>
+  </si>
+  <si>
+    <t>音频播放与录制</t>
+  </si>
+  <si>
+    <t>定位服务</t>
+  </si>
+  <si>
+    <t>百度地图</t>
+  </si>
+  <si>
+    <t>百度导航</t>
+  </si>
+  <si>
+    <t>百度全景地图</t>
+  </si>
+  <si>
+    <t>百度云推送</t>
+  </si>
+  <si>
+    <t>二维码扫描视图</t>
+  </si>
+  <si>
+    <t>位图</t>
+  </si>
+  <si>
+    <t>蓝牙</t>
+  </si>
+  <si>
+    <t>边界视图</t>
+  </si>
+  <si>
+    <t>按钮控件</t>
+  </si>
+  <si>
+    <t>缓存管理</t>
+  </si>
+  <si>
+    <t>do_Calendar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历控件</t>
+  </si>
+  <si>
+    <t>照相机</t>
+  </si>
+  <si>
+    <t>复选框</t>
+  </si>
+  <si>
+    <t>组合框控件</t>
+  </si>
+  <si>
+    <t>通讯录</t>
+  </si>
+  <si>
+    <t>画廊视图</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据缓存</t>
+  </si>
+  <si>
+    <t>日期,时间选择控件</t>
+  </si>
+  <si>
+    <t>设备的信息环境类</t>
+  </si>
+  <si>
+    <t>窗口</t>
+  </si>
+  <si>
+    <t>环信IM</t>
+  </si>
+  <si>
+    <t>List分组视图</t>
+  </si>
+  <si>
+    <t>启动外部应用</t>
+  </si>
+  <si>
+    <t>多页面滑动视图</t>
+  </si>
+  <si>
+    <t>帧动画视图</t>
+  </si>
+  <si>
+    <t>手势组件</t>
+  </si>
+  <si>
+    <t>应用全局类</t>
+  </si>
+  <si>
+    <t>九宫格视图</t>
+  </si>
+  <si>
+    <t>陀螺仪传感器</t>
+  </si>
+  <si>
+    <t>hash数据源</t>
+  </si>
+  <si>
+    <t>http/https请求服务</t>
+  </si>
+  <si>
+    <t>讯飞语音</t>
+  </si>
+  <si>
+    <t>图片预览</t>
+  </si>
+  <si>
+    <t>图片预览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片裁剪视图</t>
+  </si>
+  <si>
+    <t>图片控件</t>
+  </si>
+  <si>
+    <t>带索引的ListView</t>
+  </si>
+  <si>
+    <t>只读目录区文件管理类</t>
+  </si>
+  <si>
+    <t>极光推送</t>
+  </si>
+  <si>
+    <t>标签框</t>
+  </si>
+  <si>
+    <t>线性布局</t>
+  </si>
+  <si>
+    <t>列表数据源</t>
+  </si>
+  <si>
+    <t>List视图</t>
+  </si>
+  <si>
+    <t>do_LocalNotification</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地通知</t>
+  </si>
+  <si>
+    <t>跑马灯标签框</t>
+  </si>
+  <si>
+    <t>多选框控件</t>
+  </si>
+  <si>
+    <t>网络状态类</t>
+  </si>
+  <si>
+    <t>通知类</t>
+  </si>
+  <si>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>手势签名</t>
+  </si>
+  <si>
+    <t>PDF阅读器</t>
+  </si>
+  <si>
+    <t>单选控件控件</t>
+  </si>
+  <si>
+    <t>保利威视</t>
+  </si>
+  <si>
+    <t>进度条</t>
+  </si>
+  <si>
+    <t>进度条1</t>
+  </si>
+  <si>
+    <t>进度条2</t>
+  </si>
+  <si>
+    <t>二维码</t>
+  </si>
+  <si>
+    <t>富文本标签框</t>
+  </si>
+  <si>
+    <t>SangforVPN</t>
+  </si>
+  <si>
+    <t>安卓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动视图</t>
+  </si>
+  <si>
+    <t>拖动条</t>
+  </si>
+  <si>
+    <t>滑动视图</t>
+  </si>
+  <si>
+    <t>设备传感器</t>
+  </si>
+  <si>
+    <t>使用sina微博登录第三方应用</t>
+  </si>
+  <si>
+    <t>左右滑动List视图</t>
+  </si>
+  <si>
+    <t>Socket请求服务</t>
+  </si>
+  <si>
+    <t>SQLite3数据库</t>
+  </si>
+  <si>
+    <t>文件管理类</t>
+  </si>
+  <si>
+    <t>开关</t>
+  </si>
+  <si>
+    <t>使用qq登录第三方应用</t>
+  </si>
+  <si>
+    <t>微信相关功能</t>
+  </si>
+  <si>
+    <t>多行文本编辑框</t>
+  </si>
+  <si>
+    <t>单行文本编辑框</t>
+  </si>
+  <si>
+    <t>定时器</t>
+  </si>
+  <si>
+    <t>指纹验证</t>
+  </si>
+  <si>
+    <t>友盟统计分析</t>
+  </si>
+  <si>
+    <t>银联支付</t>
+  </si>
+  <si>
+    <t>纵向滑动视图</t>
+  </si>
+  <si>
+    <t>视频录制</t>
+  </si>
+  <si>
+    <t>视频播放器</t>
+  </si>
+  <si>
+    <t>多视图切换容器</t>
+  </si>
+  <si>
+    <t>万普世纪广告</t>
+  </si>
+  <si>
+    <t>网页视图控件</t>
+  </si>
+  <si>
+    <t>按钮</t>
+  </si>
+  <si>
+    <t>系统分享</t>
+  </si>
+  <si>
+    <t>安卓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDA扫描器</t>
+  </si>
+  <si>
+    <t>乐视移动直播</t>
+  </si>
+  <si>
+    <t>乐视云点播</t>
+  </si>
+  <si>
+    <t>FBLogin</t>
+  </si>
+  <si>
+    <t>优博讯扫描器</t>
+  </si>
+  <si>
+    <t>汉王云名片识别</t>
+  </si>
+  <si>
+    <t>汉王云数字</t>
+  </si>
+  <si>
+    <t>记步器</t>
+  </si>
+  <si>
+    <t>RSA加密</t>
+  </si>
+  <si>
+    <t>CIA闪验</t>
+  </si>
+  <si>
+    <t>短信验证码</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>扫描器35</t>
+  </si>
+  <si>
+    <t>图灵机器人</t>
+  </si>
+  <si>
+    <t>UtoVR播放器</t>
+  </si>
+  <si>
+    <t>CM980扫描组件</t>
+  </si>
+  <si>
+    <t>Cilico RFID读写组件</t>
+  </si>
+  <si>
+    <t>腾讯地图定位</t>
+  </si>
+  <si>
+    <t>滑动选择框</t>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_3DTouch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ALayout</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_App</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓IOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Contact</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_JPush</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2590_PickerView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=146&amp;extra=page%3D7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=177&amp;extra=page%3D3</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=176&amp;extra=page%3D7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=308&amp;extra=page%3D5</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=593&amp;extra=page%3D4</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=337&amp;extra=page%3D5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=185&amp;extra=page%3D7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=207&amp;extra=page%3D1</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=434&amp;extra=page%3D5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=434&amp;extra=page%3D5</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=230&amp;extra=page%3D6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=363&amp;extra=page%3D3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=617&amp;extra=page%3D3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=667&amp;highlight=%E8%93%9D%E7%89%99</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=156&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=553&amp;highlight=%E6%97%A5%E5%8E%86</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=117&amp;extra=page%3D6</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=157&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=160&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=226&amp;highlight=%E9%80%9A%E8%AE%AF%E5%BD%95</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=161&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=163&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=627&amp;extra=page%3D3</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=728&amp;extra=page%3D3</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=284&amp;extra=page%3D1</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=172&amp;extra=page%3D7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=297&amp;extra=page%3D6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=113&amp;extra=page%3D9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=541&amp;extra=page%3D4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=137&amp;extra=page%3D9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=921&amp;extra=page%3D1</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=151&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=456&amp;extra=page%3D5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=147</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=538&amp;extra=page%3D1</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=540&amp;extra=page%3D4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=537&amp;extra=page%3D4</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=133&amp;extra=page%3D9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1097&amp;extra=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=145&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=148&amp;extra=page%3D4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=154&amp;extra=page%3D8</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=316&amp;extra=page%3D1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1096&amp;extra=page%3D1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=294&amp;extra=page%3D6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=170&amp;extra=page%3D7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=164&amp;extra=page%3D6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=153&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=171&amp;extra=page%3D7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=820&amp;extra=page%3D2</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=844&amp;extra=page%3D2</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=630&amp;extra=page%3D3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=539&amp;extra=page%3D4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=722&amp;extra=page%3D3</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=127&amp;extra=page%3D6</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=205&amp;extra=page%3D3</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=426&amp;extra=page%3D5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=221&amp;extra=page%3D6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=926&amp;extra=page%3D1</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=138&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=174&amp;extra=page%3D7</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=219&amp;extra=page%3D6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=167&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=150&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=135&amp;extra=page%3D9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=285&amp;extra=page%3D6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=144&amp;extra=page%3D8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=128&amp;extra=page%3D4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=556&amp;extra=page%3D4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=583&amp;extra=page%3D4</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=852&amp;extra=page%3D2</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=877&amp;extra=page%3D2</t>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=876&amp;extra=page%3D2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝钰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝钰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>databale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confont</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔杏杏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝钰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,7 +1262,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,66 +1270,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -513,72 +1290,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,7 +1311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,192 +1323,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -792,255 +1336,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,68 +1358,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1375,17 +1654,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="76.125" customWidth="1"/>
@@ -1394,7 +1671,7 @@
     <col min="9" max="9" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1423,432 +1700,432 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -1864,187 +2141,3033 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="G102" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="G103" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="G104" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="G105" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="G106" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="G107" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="G108" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="G109" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="G110" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="G111" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="G112" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="G113" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="G114" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="G115" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="G116" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="G117" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="G118" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="G119" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="G120" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="G121" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="G122" s="9" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B87" r:id="rId1" display="http://doc.deviceone.net/web/doc/detail_course/components/do_SwitchView.htm"/>
-    <hyperlink ref="I87" r:id="rId2" display="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
+    <hyperlink ref="B87" r:id="rId1"/>
+    <hyperlink ref="I87" r:id="rId2" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5">
+        <v>3.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>1.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2.1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11">
+        <v>1.3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1.3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1.8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>3.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>2.7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>1.6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>1.4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>2.8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>2.7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>1.7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30">
+        <v>1.4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>1.8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>2.4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>3.9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>2.1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1.4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>2.8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>2.1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>2.1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>1.6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>1.4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>1.9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>5.4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>3.3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>1.3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>3.5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>1.4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>1.3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" t="s">
+        <v>281</v>
+      </c>
+      <c r="E51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B55">
+        <v>1.5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>3.4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>1.3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59">
+        <v>6.4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60">
+        <v>1.5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61">
+        <v>1.4</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63">
+        <v>2.4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64">
+        <v>3.2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65">
+        <v>1.3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G66" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67">
+        <v>1.3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68">
+        <v>1.8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69">
+        <v>1.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70">
+        <v>1.9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C71" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72">
+        <v>1.7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73">
+        <v>1.4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74">
+        <v>1.7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75">
+        <v>1.4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77">
+        <v>4.8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G77" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78">
+        <v>1.2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79">
+        <v>2.9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" t="s">
+        <v>281</v>
+      </c>
+      <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G79" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C80" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <v>2.4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82">
+        <v>2.8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" t="s">
+        <v>281</v>
+      </c>
+      <c r="E82" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83">
+        <v>5.5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G84" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85">
+        <v>2.9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86">
+        <v>1.6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G86" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C87" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88">
+        <v>2.7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89">
+        <v>2.6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90">
+        <v>5.7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" t="s">
+        <v>281</v>
+      </c>
+      <c r="E90" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91">
+        <v>5.7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C92" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" t="s">
+        <v>284</v>
+      </c>
+      <c r="E92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94">
+        <v>1.4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>243</v>
+      </c>
+      <c r="D94" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96">
+        <v>1.4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>245</v>
+      </c>
+      <c r="D96" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97">
+        <v>1.4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" t="s">
+        <v>145</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98">
+        <v>1.8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99">
+        <v>2.1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" t="s">
+        <v>181</v>
+      </c>
+      <c r="E99" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>249</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101">
+        <v>2.4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" t="s">
+        <v>148</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G101" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>251</v>
+      </c>
+      <c r="D102" t="s">
+        <v>281</v>
+      </c>
+      <c r="E102" t="s">
+        <v>160</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>252</v>
+      </c>
+      <c r="D103" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" t="s">
+        <v>253</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G103" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C104" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" t="s">
+        <v>253</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" t="s">
+        <v>280</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G105" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>256</v>
+      </c>
+      <c r="D106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>257</v>
+      </c>
+      <c r="D107" t="s">
+        <v>279</v>
+      </c>
+      <c r="E107" t="s">
+        <v>253</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>258</v>
+      </c>
+      <c r="D108" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" t="s">
+        <v>253</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>259</v>
+      </c>
+      <c r="D109" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" t="s">
+        <v>280</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>260</v>
+      </c>
+      <c r="D110" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" t="s">
+        <v>152</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C111" t="s">
+        <v>261</v>
+      </c>
+      <c r="D111" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" t="s">
+        <v>152</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112">
+        <v>1.3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" t="s">
+        <v>279</v>
+      </c>
+      <c r="E113" t="s">
+        <v>285</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C114" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" t="s">
+        <v>253</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>265</v>
+      </c>
+      <c r="D115" t="s">
+        <v>141</v>
+      </c>
+      <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C116" t="s">
+        <v>266</v>
+      </c>
+      <c r="D116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>267</v>
+      </c>
+      <c r="D117" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" t="s">
+        <v>253</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>268</v>
+      </c>
+      <c r="D118" t="s">
+        <v>279</v>
+      </c>
+      <c r="E118" t="s">
+        <v>160</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119">
+        <v>1.2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" t="s">
+        <v>279</v>
+      </c>
+      <c r="E119" t="s">
+        <v>253</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120">
+        <v>1.2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>270</v>
+      </c>
+      <c r="D120" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C121" t="s">
+        <v>271</v>
+      </c>
+      <c r="D121" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>286</v>
+      </c>
+      <c r="B122">
+        <v>2.1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G122"/>
+  <mergeCells count="1">
+    <mergeCell ref="G70:G72"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G59" r:id="rId1"/>
+    <hyperlink ref="G106" r:id="rId2"/>
+    <hyperlink ref="G70" r:id="rId3"/>
+    <hyperlink ref="G21" r:id="rId4"/>
+    <hyperlink ref="G20" r:id="rId5"/>
+    <hyperlink ref="G99" r:id="rId6"/>
+    <hyperlink ref="G41" r:id="rId7"/>
+    <hyperlink ref="G100" r:id="rId8"/>
+    <hyperlink ref="G51" r:id="rId9"/>
+    <hyperlink ref="G73" r:id="rId10"/>
+    <hyperlink ref="G57" r:id="rId11"/>
+    <hyperlink ref="G46" r:id="rId12"/>
+    <hyperlink ref="G80" r:id="rId13"/>
+    <hyperlink ref="G13" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G61" r:id="rId16"/>
+    <hyperlink ref="G96" r:id="rId17"/>
+    <hyperlink ref="G63" r:id="rId18"/>
+    <hyperlink ref="G19" r:id="rId19"/>
+    <hyperlink ref="G89" r:id="rId20"/>
+    <hyperlink ref="G81" r:id="rId21"/>
+    <hyperlink ref="G16" r:id="rId22"/>
+    <hyperlink ref="G14" r:id="rId23"/>
+    <hyperlink ref="G9" r:id="rId24"/>
+    <hyperlink ref="G38" r:id="rId25"/>
+    <hyperlink ref="G4" r:id="rId26"/>
+    <hyperlink ref="G65" r:id="rId27"/>
+    <hyperlink ref="G62" r:id="rId28"/>
+    <hyperlink ref="G90" r:id="rId29"/>
+    <hyperlink ref="G34" r:id="rId30"/>
+    <hyperlink ref="G32" r:id="rId31"/>
+    <hyperlink ref="G29" r:id="rId32"/>
+    <hyperlink ref="G28" r:id="rId33"/>
+    <hyperlink ref="G24" r:id="rId34"/>
+    <hyperlink ref="G64" r:id="rId35"/>
+    <hyperlink ref="G91" r:id="rId36"/>
+    <hyperlink ref="G45" r:id="rId37"/>
+    <hyperlink ref="G98" r:id="rId38"/>
+    <hyperlink ref="G56" r:id="rId39"/>
+    <hyperlink ref="G85" r:id="rId40"/>
+    <hyperlink ref="G92" r:id="rId41"/>
+    <hyperlink ref="G42" r:id="rId42"/>
+    <hyperlink ref="G53" r:id="rId43"/>
+    <hyperlink ref="G40" r:id="rId44"/>
+    <hyperlink ref="G26" r:id="rId45"/>
+    <hyperlink ref="G22" r:id="rId46"/>
+    <hyperlink ref="G55" r:id="rId47"/>
+    <hyperlink ref="G60" r:id="rId48"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\do\sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">组件类型!$A$1:$G$122</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
   <si>
     <t>组件名称</t>
   </si>
@@ -248,6 +243,15 @@
     <t>do_PainterView</t>
   </si>
   <si>
+    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm</t>
+  </si>
+  <si>
+    <t>祝钰</t>
+  </si>
+  <si>
+    <t>http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip</t>
+  </si>
+  <si>
     <t>do_PDFView</t>
   </si>
   <si>
@@ -314,9 +318,6 @@
     <t>http://doc.deviceone.net/web/doc/detail_course/components/do_SwitchView.htm</t>
   </si>
   <si>
-    <t>祝钰</t>
-  </si>
-  <si>
     <t>http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip</t>
   </si>
   <si>
@@ -335,6 +336,12 @@
     <t>do_Timer</t>
   </si>
   <si>
+    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Timer.htm</t>
+  </si>
+  <si>
+    <t>http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip</t>
+  </si>
+  <si>
     <t>do_TouchID</t>
   </si>
   <si>
@@ -365,6 +372,9 @@
     <t>M0011_FelixMenuButton</t>
   </si>
   <si>
+    <t>第三方</t>
+  </si>
+  <si>
     <t>M0011_share</t>
   </si>
   <si>
@@ -425,120 +435,114 @@
     <t>M2590_PickerView</t>
   </si>
   <si>
+    <t>英文名称</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>中文名称</t>
+  </si>
+  <si>
+    <t>所属类型</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>bbs链接</t>
+  </si>
+  <si>
+    <t>3DTouch</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
     <t>崔杏杏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3DTouch</t>
-  </si>
-  <si>
-    <t>SM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>加速度传感器</t>
   </si>
   <si>
-    <t>SM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>安卓ios winph winpc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绝对布局</t>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓ios winph winpc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_Album</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=146&amp;extra=page%3D7</t>
   </si>
   <si>
     <t>相册</t>
   </si>
   <si>
-    <t>安卓ios winph winpc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=177&amp;extra=page%3D3</t>
   </si>
   <si>
     <t>常用算法</t>
   </si>
   <si>
-    <t>do_Alipay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝支付</t>
   </si>
   <si>
     <t>安卓IOS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓IOS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>动画组合</t>
   </si>
   <si>
     <t>MM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=176&amp;extra=page%3D7</t>
   </si>
   <si>
     <t>属性动画组合</t>
   </si>
   <si>
-    <t>MM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=308&amp;extra=page%3D5</t>
   </si>
   <si>
     <t>应用类</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=593&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>Apple应用内支付</t>
   </si>
   <si>
-    <t>IOS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助按钮</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=337&amp;extra=page%3D5</t>
+  </si>
+  <si>
     <t>音频播放与录制</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=185&amp;extra=page%3D7</t>
+  </si>
+  <si>
     <t>定位服务</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=207&amp;extra=page%3D1</t>
+  </si>
+  <si>
     <t>百度地图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=434&amp;extra=page%3D5</t>
+  </si>
+  <si>
     <t>百度导航</t>
   </si>
   <si>
@@ -548,169 +552,279 @@
     <t>百度云推送</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=230&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>二维码扫描视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=363&amp;extra=page%3D3</t>
+  </si>
+  <si>
     <t>位图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=617&amp;extra=page%3D3</t>
+  </si>
+  <si>
     <t>蓝牙</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=667&amp;highlight=%E8%93%9D%E7%89%99</t>
+  </si>
+  <si>
     <t>边界视图</t>
   </si>
   <si>
     <t>按钮控件</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=156&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>缓存管理</t>
   </si>
   <si>
-    <t>do_Calendar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>日历控件</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=553&amp;highlight=%E6%97%A5%E5%8E%86</t>
+  </si>
+  <si>
     <t>照相机</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=117&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>复选框</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=157&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>组合框控件</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=160&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>通讯录</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=226&amp;highlight=%E9%80%9A%E8%AE%AF%E5%BD%95</t>
+  </si>
+  <si>
     <t>画廊视图</t>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>数据缓存</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=161&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>日期,时间选择控件</t>
   </si>
   <si>
     <t>设备的信息环境类</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=163&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>窗口</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=627&amp;extra=page%3D3</t>
+  </si>
+  <si>
     <t>环信IM</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=728&amp;extra=page%3D3</t>
+  </si>
+  <si>
     <t>List分组视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=284&amp;extra=page%3D1</t>
+  </si>
+  <si>
     <t>启动外部应用</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=172&amp;extra=page%3D7</t>
+  </si>
+  <si>
     <t>多页面滑动视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=297&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>帧动画视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=113&amp;extra=page%3D9</t>
+  </si>
+  <si>
     <t>手势组件</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=541&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>应用全局类</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=137&amp;extra=page%3D9</t>
+  </si>
+  <si>
     <t>九宫格视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=921&amp;extra=page%3D1</t>
+  </si>
+  <si>
     <t>陀螺仪传感器</t>
   </si>
   <si>
     <t>hash数据源</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=151&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>http/https请求服务</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=456&amp;extra=page%3D5</t>
+  </si>
+  <si>
     <t>讯飞语音</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=147</t>
+  </si>
+  <si>
     <t>图片预览</t>
   </si>
   <si>
-    <t>图片预览</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=538&amp;extra=page%3D1</t>
   </si>
   <si>
     <t>图片裁剪视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=540&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>图片控件</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=537&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>带索引的ListView</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=133&amp;extra=page%3D9</t>
+  </si>
+  <si>
     <t>只读目录区文件管理类</t>
   </si>
   <si>
     <t>极光推送</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1097&amp;extra=</t>
+  </si>
+  <si>
     <t>标签框</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=145&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>线性布局</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=148&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>列表数据源</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=154&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>List视图</t>
   </si>
   <si>
-    <t>do_LocalNotification</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=316&amp;extra=page%3D1</t>
   </si>
   <si>
     <t>本地通知</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1096&amp;extra=page%3D1</t>
+  </si>
+  <si>
     <t>跑马灯标签框</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=294&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>多选框控件</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=170&amp;extra=page%3D7</t>
+  </si>
+  <si>
     <t>网络状态类</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=164&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>通知类</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=153&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>页面</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=171&amp;extra=page%3D7</t>
+  </si>
+  <si>
     <t>手势签名</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=820&amp;extra=page%3D2</t>
+  </si>
+  <si>
     <t>PDF阅读器</t>
   </si>
   <si>
     <t>单选控件控件</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=844&amp;extra=page%3D2</t>
+  </si>
+  <si>
     <t>保利威视</t>
   </si>
   <si>
     <t>进度条</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=630&amp;extra=page%3D3</t>
+  </si>
+  <si>
     <t>进度条1</t>
   </si>
   <si>
@@ -720,43 +834,69 @@
     <t>二维码</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=539&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>富文本标签框</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=722&amp;extra=page%3D3</t>
+  </si>
+  <si>
     <t>SangforVPN</t>
   </si>
   <si>
     <t>安卓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>滚动视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=127&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>拖动条</t>
   </si>
   <si>
     <t>滑动视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=205&amp;extra=page%3D3</t>
+  </si>
+  <si>
     <t>设备传感器</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=426&amp;extra=page%3D5</t>
+  </si>
+  <si>
     <t>使用sina微博登录第三方应用</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=221&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>左右滑动List视图</t>
   </si>
   <si>
     <t>Socket请求服务</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=926&amp;extra=page%3D1</t>
+  </si>
+  <si>
     <t>SQLite3数据库</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=138&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>文件管理类</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=174&amp;extra=page%3D7</t>
+  </si>
+  <si>
     <t>开关</t>
   </si>
   <si>
@@ -766,15 +906,27 @@
     <t>微信相关功能</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=219&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>多行文本编辑框</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=167&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>单行文本编辑框</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=150&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>定时器</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=135&amp;extra=page%3D9</t>
+  </si>
+  <si>
     <t>指纹验证</t>
   </si>
   <si>
@@ -787,29 +939,43 @@
     <t>纵向滑动视图</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=285&amp;extra=page%3D6</t>
+  </si>
+  <si>
     <t>视频录制</t>
   </si>
   <si>
     <t>视频播放器</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=144&amp;extra=page%3D8</t>
+  </si>
+  <si>
     <t>多视图切换容器</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=128&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>万普世纪广告</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=556&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>网页视图控件</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=583&amp;extra=page%3D4</t>
+  </si>
+  <si>
     <t>按钮</t>
   </si>
   <si>
     <t>系统分享</t>
   </si>
   <si>
-    <t>安卓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=852&amp;extra=page%3D2</t>
   </si>
   <si>
     <t>PDA扫描器</t>
@@ -818,9 +984,15 @@
     <t>乐视移动直播</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=877&amp;extra=page%3D2</t>
+  </si>
+  <si>
     <t>乐视云点播</t>
   </si>
   <si>
+    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=876&amp;extra=page%3D2</t>
+  </si>
+  <si>
     <t>FBLogin</t>
   </si>
   <si>
@@ -869,350 +1041,19 @@
     <t>滑动选择框</t>
   </si>
   <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Os</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_3DTouch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_ALayout</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_App</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓IOS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_Contact</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>do_JPush</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2590_PickerView</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=146&amp;extra=page%3D7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=177&amp;extra=page%3D3</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=176&amp;extra=page%3D7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=308&amp;extra=page%3D5</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=593&amp;extra=page%3D4</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=337&amp;extra=page%3D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=185&amp;extra=page%3D7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=207&amp;extra=page%3D1</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=434&amp;extra=page%3D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=434&amp;extra=page%3D5</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=230&amp;extra=page%3D6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=363&amp;extra=page%3D3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=617&amp;extra=page%3D3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=667&amp;highlight=%E8%93%9D%E7%89%99</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=156&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=553&amp;highlight=%E6%97%A5%E5%8E%86</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=117&amp;extra=page%3D6</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=157&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=160&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=226&amp;highlight=%E9%80%9A%E8%AE%AF%E5%BD%95</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=161&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=163&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=627&amp;extra=page%3D3</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=728&amp;extra=page%3D3</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=284&amp;extra=page%3D1</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=172&amp;extra=page%3D7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=297&amp;extra=page%3D6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=113&amp;extra=page%3D9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=541&amp;extra=page%3D4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=137&amp;extra=page%3D9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=921&amp;extra=page%3D1</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=151&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=456&amp;extra=page%3D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=147</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=538&amp;extra=page%3D1</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=540&amp;extra=page%3D4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=537&amp;extra=page%3D4</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=133&amp;extra=page%3D9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1097&amp;extra=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=145&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=148&amp;extra=page%3D4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=154&amp;extra=page%3D8</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=316&amp;extra=page%3D1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1096&amp;extra=page%3D1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=294&amp;extra=page%3D6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=170&amp;extra=page%3D7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=164&amp;extra=page%3D6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=153&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=171&amp;extra=page%3D7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=820&amp;extra=page%3D2</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=844&amp;extra=page%3D2</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=630&amp;extra=page%3D3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=539&amp;extra=page%3D4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=722&amp;extra=page%3D3</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=127&amp;extra=page%3D6</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=205&amp;extra=page%3D3</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=426&amp;extra=page%3D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=221&amp;extra=page%3D6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=926&amp;extra=page%3D1</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=138&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=174&amp;extra=page%3D7</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=219&amp;extra=page%3D6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=167&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=150&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=135&amp;extra=page%3D9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=285&amp;extra=page%3D6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=144&amp;extra=page%3D8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=128&amp;extra=page%3D4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=556&amp;extra=page%3D4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=583&amp;extra=page%3D4</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=852&amp;extra=page%3D2</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=877&amp;extra=page%3D2</t>
-  </si>
-  <si>
-    <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=876&amp;extra=page%3D2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝钰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝钰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>名称</t>
   </si>
   <si>
     <t>databale</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
@@ -1220,39 +1061,41 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>confont</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔杏杏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝钰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1266,43 +1109,143 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1311,7 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,12 +1272,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1336,12 +1465,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,51 +1717,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1654,750 +2060,780 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="76.125" customWidth="1"/>
+    <col min="1" max="1" width="24.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+    <row r="66" customFormat="1" spans="1:9">
+      <c r="A66" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" s="9"/>
+      <c r="G66" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="4" t="s">
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="F87" s="5"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="F87" s="9"/>
       <c r="G87" t="s">
-        <v>96</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
+    <row r="92" spans="1:9">
+      <c r="A92" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
+      <c r="B92" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
+      <c r="C92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="2" t="s">
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="2" t="s">
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="2" t="s">
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="2" t="s">
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G106" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
+      <c r="G102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G108" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
+      <c r="G103" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G109" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="2" t="s">
+      <c r="G104" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G110" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="2" t="s">
+      <c r="G105" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G111" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
+      <c r="G106" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G112" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="2" t="s">
+      <c r="G107" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G113" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="2" t="s">
+      <c r="G108" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G114" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
+      <c r="G109" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G115" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="2" t="s">
+      <c r="G110" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G116" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
+      <c r="G111" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G117" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="2" t="s">
+      <c r="G112" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G118" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
+      <c r="G113" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G119" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
+      <c r="G114" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G120" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
+      <c r="G115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G121" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
+      <c r="G116" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G122" s="9" t="s">
-        <v>363</v>
+      <c r="G117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B87" r:id="rId1"/>
-    <hyperlink ref="I87" r:id="rId2" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
+    <hyperlink ref="B87" r:id="rId1" display="http://doc.deviceone.net/web/doc/detail_course/components/do_SwitchView.htm"/>
+    <hyperlink ref="I87" r:id="rId2" display="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
+    <hyperlink ref="B66" r:id="rId3" display="http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm"/>
+    <hyperlink ref="I66" r:id="rId4" display="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip"/>
+    <hyperlink ref="I92" r:id="rId5" display="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A92" sqref="$A92:$XFD92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="7.875" customWidth="1"/>
@@ -2407,50 +2843,50 @@
     <col min="7" max="7" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2458,65 +2894,65 @@
         <v>1.2</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1.2</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3.3</v>
       </c>
       <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="G5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2524,59 +2960,59 @@
         <v>2.1</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1.6</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2584,22 +3020,22 @@
         <v>1.3</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2607,45 +3043,45 @@
         <v>2.1</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1.3</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2653,19 +3089,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2673,22 +3109,22 @@
         <v>1.3</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2696,22 +3132,22 @@
         <v>1.8</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2719,45 +3155,45 @@
         <v>3.3</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2765,19 +3201,19 @@
         <v>1.2</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2785,45 +3221,45 @@
         <v>1.2</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2831,22 +3267,22 @@
         <v>2.7</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2854,45 +3290,45 @@
         <v>1.6</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
         <v>157</v>
       </c>
-      <c r="E22" t="s">
-        <v>152</v>
-      </c>
       <c r="F22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2900,19 +3336,19 @@
         <v>1.4</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2920,22 +3356,22 @@
         <v>2.8</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2943,42 +3379,42 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2986,22 +3422,22 @@
         <v>2.7</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3009,22 +3445,22 @@
         <v>1.7</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3032,45 +3468,45 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>1.4</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -3078,42 +3514,42 @@
         <v>1.8</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -3121,19 +3557,19 @@
         <v>2.4</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3141,22 +3577,22 @@
         <v>3.9</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -3164,22 +3600,22 @@
         <v>2.1</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -3187,22 +3623,22 @@
         <v>1.4</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -3210,22 +3646,22 @@
         <v>2.8</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3233,22 +3669,22 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -3256,22 +3692,22 @@
         <v>2.1</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3279,22 +3715,22 @@
         <v>2.1</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -3302,22 +3738,22 @@
         <v>1.6</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3325,22 +3761,22 @@
         <v>1.4</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3348,22 +3784,22 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3371,19 +3807,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -3391,22 +3827,22 @@
         <v>1.9</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3414,22 +3850,22 @@
         <v>5.4</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3437,19 +3873,19 @@
         <v>3.3</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -3457,22 +3893,22 @@
         <v>1.3</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>361</v>
+        <v>157</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -3480,22 +3916,22 @@
         <v>3.5</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>361</v>
+        <v>149</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -3503,19 +3939,19 @@
         <v>1.4</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3523,111 +3959,111 @@
         <v>1.3</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
-        <v>280</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>61</v>
       </c>
       <c r="B54">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>1.5</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3635,22 +4071,22 @@
         <v>3.4</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -3658,45 +4094,45 @@
         <v>1.3</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>361</v>
+        <v>149</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -3704,68 +4140,68 @@
         <v>6.4</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>1.5</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61">
         <v>1.4</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>211</v>
+      <c r="C61" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -3773,22 +4209,22 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -3796,22 +4232,22 @@
         <v>2.4</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -3819,22 +4255,22 @@
         <v>3.2</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -3842,1233 +4278,1233 @@
         <v>1.3</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>73</v>
       </c>
       <c r="B66">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>362</v>
+        <v>149</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G66" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>1.3</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B68">
         <v>1.8</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>142</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>362</v>
+        <v>149</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>1.5</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>1.9</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B72">
         <v>1.7</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>142</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B73">
         <v>1.4</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>1.7</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>362</v>
+        <v>157</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G74" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B75">
         <v>1.4</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>253</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77">
         <v>4.8</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="D77" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>362</v>
+        <v>149</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G77" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B78">
         <v>1.2</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B79">
         <v>2.9</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="D79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80">
+        <v>1.1</v>
+      </c>
+      <c r="C80" t="s">
         <v>281</v>
       </c>
-      <c r="E79" t="s">
-        <v>148</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G79" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C80" t="s">
-        <v>230</v>
-      </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B81">
         <v>2.4</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="D81" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B82">
         <v>2.8</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="D82" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B83">
         <v>5.5</v>
       </c>
       <c r="C83" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
-        <v>148</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>361</v>
+        <v>149</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G84" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B85">
         <v>2.9</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B86">
         <v>1.6</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E86" t="s">
-        <v>148</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>361</v>
+        <v>149</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G86" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>2.7</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>2.6</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
-        <v>152</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>5.7</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E90" t="s">
-        <v>148</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91">
         <v>5.7</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
-        <v>148</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
-        <v>145</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E93" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B94">
         <v>1.4</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="D94" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E94" t="s">
-        <v>152</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="D95" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B96">
         <v>1.4</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="D96" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>142</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B97">
         <v>1.4</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="D97" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>145</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B98">
         <v>1.8</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>148</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B99">
         <v>2.1</v>
       </c>
       <c r="C99" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="D99" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" t="s">
         <v>157</v>
       </c>
-      <c r="E100" t="s">
-        <v>152</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B101">
         <v>2.4</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E101" t="s">
-        <v>148</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>362</v>
+        <v>149</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G101" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="D102" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>160</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E103" t="s">
-        <v>253</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>363</v>
+        <v>275</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G103" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B104">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E104" t="s">
-        <v>253</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>280</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>363</v>
+        <v>157</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G105" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="D106" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="D107" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E107" t="s">
-        <v>253</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="D108" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E108" t="s">
-        <v>253</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="D109" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E109" t="s">
-        <v>280</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="D110" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E110" t="s">
-        <v>152</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B111">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="D111" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E111" t="s">
-        <v>152</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>1.3</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="D112" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E113" t="s">
-        <v>285</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B114">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="D114" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E114" t="s">
-        <v>253</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E115" t="s">
-        <v>226</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B116">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E116" t="s">
-        <v>226</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E117" t="s">
-        <v>253</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="D118" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E118" t="s">
-        <v>160</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B119">
         <v>1.2</v>
       </c>
       <c r="C119" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="D119" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="E119" t="s">
-        <v>253</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B120">
         <v>1.2</v>
       </c>
       <c r="C120" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="D120" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E120" t="s">
-        <v>226</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B121">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C121" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="D121" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E121" t="s">
-        <v>253</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>286</v>
+        <v>137</v>
       </c>
       <c r="B122">
         <v>2.1</v>
       </c>
       <c r="C122" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="D122" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>226</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>363</v>
+        <v>275</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5076,98 +5512,99 @@
   <mergeCells count="1">
     <mergeCell ref="G70:G72"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G59" r:id="rId1"/>
-    <hyperlink ref="G106" r:id="rId2"/>
-    <hyperlink ref="G70" r:id="rId3"/>
-    <hyperlink ref="G21" r:id="rId4"/>
-    <hyperlink ref="G20" r:id="rId5"/>
-    <hyperlink ref="G99" r:id="rId6"/>
-    <hyperlink ref="G41" r:id="rId7"/>
-    <hyperlink ref="G100" r:id="rId8"/>
-    <hyperlink ref="G51" r:id="rId9"/>
-    <hyperlink ref="G73" r:id="rId10"/>
-    <hyperlink ref="G57" r:id="rId11"/>
-    <hyperlink ref="G46" r:id="rId12"/>
-    <hyperlink ref="G80" r:id="rId13"/>
-    <hyperlink ref="G13" r:id="rId14"/>
-    <hyperlink ref="G39" r:id="rId15"/>
-    <hyperlink ref="G61" r:id="rId16"/>
-    <hyperlink ref="G96" r:id="rId17"/>
-    <hyperlink ref="G63" r:id="rId18"/>
-    <hyperlink ref="G19" r:id="rId19"/>
-    <hyperlink ref="G89" r:id="rId20"/>
-    <hyperlink ref="G81" r:id="rId21"/>
-    <hyperlink ref="G16" r:id="rId22"/>
-    <hyperlink ref="G14" r:id="rId23"/>
-    <hyperlink ref="G9" r:id="rId24"/>
-    <hyperlink ref="G38" r:id="rId25"/>
-    <hyperlink ref="G4" r:id="rId26"/>
-    <hyperlink ref="G65" r:id="rId27"/>
-    <hyperlink ref="G62" r:id="rId28"/>
-    <hyperlink ref="G90" r:id="rId29"/>
-    <hyperlink ref="G34" r:id="rId30"/>
-    <hyperlink ref="G32" r:id="rId31"/>
-    <hyperlink ref="G29" r:id="rId32"/>
-    <hyperlink ref="G28" r:id="rId33"/>
-    <hyperlink ref="G24" r:id="rId34"/>
-    <hyperlink ref="G64" r:id="rId35"/>
-    <hyperlink ref="G91" r:id="rId36"/>
-    <hyperlink ref="G45" r:id="rId37"/>
-    <hyperlink ref="G98" r:id="rId38"/>
-    <hyperlink ref="G56" r:id="rId39"/>
-    <hyperlink ref="G85" r:id="rId40"/>
-    <hyperlink ref="G92" r:id="rId41"/>
-    <hyperlink ref="G42" r:id="rId42"/>
-    <hyperlink ref="G53" r:id="rId43"/>
-    <hyperlink ref="G40" r:id="rId44"/>
-    <hyperlink ref="G26" r:id="rId45"/>
-    <hyperlink ref="G22" r:id="rId46"/>
-    <hyperlink ref="G55" r:id="rId47"/>
-    <hyperlink ref="G60" r:id="rId48"/>
+    <hyperlink ref="G59" r:id="rId1" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=316&amp;extra=page%3D1"/>
+    <hyperlink ref="G106" r:id="rId2" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=876&amp;extra=page%3D2"/>
+    <hyperlink ref="G70" r:id="rId3" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=630&amp;extra=page%3D3"/>
+    <hyperlink ref="G21" r:id="rId4" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=617&amp;extra=page%3D3"/>
+    <hyperlink ref="G20" r:id="rId5" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=363&amp;extra=page%3D3"/>
+    <hyperlink ref="G99" r:id="rId6" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=128&amp;extra=page%3D4"/>
+    <hyperlink ref="G41" r:id="rId7" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=541&amp;extra=page%3D4"/>
+    <hyperlink ref="G100" r:id="rId8" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=556&amp;extra=page%3D4"/>
+    <hyperlink ref="G51" r:id="rId9" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=540&amp;extra=page%3D4"/>
+    <hyperlink ref="G73" r:id="rId10" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=539&amp;extra=page%3D4"/>
+    <hyperlink ref="G57" r:id="rId11" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=148&amp;extra=page%3D4"/>
+    <hyperlink ref="G46" r:id="rId12" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=456&amp;extra=page%3D5"/>
+    <hyperlink ref="G80" r:id="rId13" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=426&amp;extra=page%3D5"/>
+    <hyperlink ref="G13" r:id="rId14" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=337&amp;extra=page%3D5"/>
+    <hyperlink ref="G39" r:id="rId15" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=297&amp;extra=page%3D6"/>
+    <hyperlink ref="G61" r:id="rId16" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=294&amp;extra=page%3D6"/>
+    <hyperlink ref="G96" r:id="rId17" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=285&amp;extra=page%3D6"/>
+    <hyperlink ref="G63" r:id="rId18" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=164&amp;extra=page%3D6"/>
+    <hyperlink ref="G19" r:id="rId19" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=230&amp;extra=page%3D6"/>
+    <hyperlink ref="G89" r:id="rId20" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=219&amp;extra=page%3D6"/>
+    <hyperlink ref="G81" r:id="rId21" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=221&amp;extra=page%3D6"/>
+    <hyperlink ref="G16" r:id="rId22" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=434&amp;extra=page%3D5"/>
+    <hyperlink ref="G14" r:id="rId23" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=185&amp;extra=page%3D7"/>
+    <hyperlink ref="G9" r:id="rId24" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=176&amp;extra=page%3D7"/>
+    <hyperlink ref="G38" r:id="rId25" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=172&amp;extra=page%3D7"/>
+    <hyperlink ref="G4" r:id="rId26" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=146&amp;extra=page%3D7"/>
+    <hyperlink ref="G65" r:id="rId27" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=171&amp;extra=page%3D7"/>
+    <hyperlink ref="G62" r:id="rId28" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=170&amp;extra=page%3D7"/>
+    <hyperlink ref="G90" r:id="rId29" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=167&amp;extra=page%3D8"/>
+    <hyperlink ref="G34" r:id="rId30" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=163&amp;extra=page%3D8"/>
+    <hyperlink ref="G32" r:id="rId31" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=161&amp;extra=page%3D8"/>
+    <hyperlink ref="G29" r:id="rId32" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=160&amp;extra=page%3D8"/>
+    <hyperlink ref="G28" r:id="rId33" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=157&amp;extra=page%3D8"/>
+    <hyperlink ref="G24" r:id="rId34" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=156&amp;extra=page%3D8"/>
+    <hyperlink ref="G64" r:id="rId35" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=153&amp;extra=page%3D8"/>
+    <hyperlink ref="G91" r:id="rId36" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=150&amp;extra=page%3D8"/>
+    <hyperlink ref="G45" r:id="rId37" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=151&amp;extra=page%3D8"/>
+    <hyperlink ref="G98" r:id="rId38" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=144&amp;extra=page%3D8"/>
+    <hyperlink ref="G56" r:id="rId39" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=145&amp;extra=page%3D8"/>
+    <hyperlink ref="G85" r:id="rId40" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=138&amp;extra=page%3D8"/>
+    <hyperlink ref="G92" r:id="rId41" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=135&amp;extra=page%3D9"/>
+    <hyperlink ref="G42" r:id="rId42" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=137&amp;extra=page%3D9"/>
+    <hyperlink ref="G53" r:id="rId43" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=133&amp;extra=page%3D9"/>
+    <hyperlink ref="G40" r:id="rId44" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=113&amp;extra=page%3D9"/>
+    <hyperlink ref="G26" r:id="rId45" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=553&amp;highlight=%E6%97%A5%E5%8E%86"/>
+    <hyperlink ref="G22" r:id="rId46" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=667&amp;highlight=%E8%93%9D%E7%89%99"/>
+    <hyperlink ref="G55" r:id="rId47" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1097&amp;extra="/>
+    <hyperlink ref="G60" r:id="rId48" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1096&amp;extra=page%3D1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>369</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="新增" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">组件类型!$A$1:$G$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">组件类型!$F$1:$F$122</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1072,19 +1072,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,8 +1103,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,8 +1134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,7 +1150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,9 +1164,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,46 +1186,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,7 +1202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,13 +1210,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,7 +1271,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,7 +1319,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,49 +1355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,37 +1367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,7 +1403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,31 +1415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,11 +1461,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1494,9 +1515,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,46 +1528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,6 +1547,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1571,10 +1564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,133 +1576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,16 +1710,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1744,7 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2064,8 +2057,8 @@
   <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
@@ -2436,8 +2429,6 @@
         <v>74</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="D66"/>
-      <c r="E66"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
         <v>75</v>
@@ -2829,8 +2820,10 @@
   <sheetPr/>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A92" sqref="$A92:$XFD92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3632,7 +3625,7 @@
         <v>157</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
         <v>207</v>
@@ -5508,7 +5501,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G122"/>
+  <autoFilter ref="F1:F122"/>
   <mergeCells count="1">
     <mergeCell ref="G70:G72"/>
   </mergeCells>

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
   <si>
     <t>组件名称</t>
   </si>
@@ -171,6 +171,15 @@
     <t>do_Global</t>
   </si>
   <si>
+    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Global.htm</t>
+  </si>
+  <si>
+    <t>祝钰</t>
+  </si>
+  <si>
+    <t>http://ohtf3vllq.bkt.clouddn.com/do_Global.zip</t>
+  </si>
+  <si>
     <t>do_GridView</t>
   </si>
   <si>
@@ -244,9 +253,6 @@
   </si>
   <si>
     <t>http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm</t>
-  </si>
-  <si>
-    <t>祝钰</t>
   </si>
   <si>
     <t>http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip</t>
@@ -1102,11 +1108,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1118,32 +1138,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,30 +1160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,7 +1177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,6 +1199,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1232,9 +1215,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1271,19 +1277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,7 +1307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,55 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,13 +1379,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,37 +1451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,8 +1467,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1515,20 +1523,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1556,6 +1553,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1564,10 +1570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1576,16 +1582,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,115 +1600,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2057,10 +2063,10 @@
   <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2301,505 +2307,516 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:9">
       <c r="A66" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2809,6 +2826,7 @@
     <hyperlink ref="B66" r:id="rId3" display="http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm"/>
     <hyperlink ref="I66" r:id="rId4" display="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip"/>
     <hyperlink ref="I92" r:id="rId5" display="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip"/>
+    <hyperlink ref="I42" r:id="rId6" display="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2820,7 +2838,7 @@
   <sheetPr/>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
@@ -2838,25 +2856,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2867,16 +2885,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2887,16 +2905,16 @@
         <v>1.2</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2907,19 +2925,19 @@
         <v>1.2</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2930,19 +2948,19 @@
         <v>3.3</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2953,16 +2971,16 @@
         <v>2.1</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2973,16 +2991,16 @@
         <v>1.6</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2993,16 +3011,16 @@
         <v>1.1</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3013,19 +3031,19 @@
         <v>1.3</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
         <v>149</v>
       </c>
-      <c r="F9" t="s">
-        <v>147</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3036,19 +3054,19 @@
         <v>2.1</v>
       </c>
       <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
         <v>161</v>
       </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
       <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
         <v>149</v>
       </c>
-      <c r="F10" t="s">
-        <v>147</v>
-      </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3059,19 +3077,19 @@
         <v>1.3</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3082,16 +3100,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3102,19 +3120,19 @@
         <v>1.3</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3125,19 +3143,19 @@
         <v>1.8</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3148,19 +3166,19 @@
         <v>3.3</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3171,19 +3189,19 @@
         <v>2.3</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3194,16 +3212,16 @@
         <v>1.2</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3214,19 +3232,19 @@
         <v>1.2</v>
       </c>
       <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
         <v>175</v>
-      </c>
-      <c r="D18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3237,19 +3255,19 @@
         <v>2.3</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3260,19 +3278,19 @@
         <v>2.7</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3283,19 +3301,19 @@
         <v>1.6</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
         <v>149</v>
       </c>
-      <c r="F21" t="s">
-        <v>147</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3306,19 +3324,19 @@
         <v>1.1</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="s">
         <v>159</v>
       </c>
-      <c r="E22" t="s">
-        <v>157</v>
-      </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3329,16 +3347,16 @@
         <v>1.4</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3349,19 +3367,19 @@
         <v>2.8</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3372,16 +3390,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3392,19 +3410,19 @@
         <v>1.1</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3415,19 +3433,19 @@
         <v>2.7</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3438,19 +3456,19 @@
         <v>1.7</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3461,19 +3479,19 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3484,19 +3502,19 @@
         <v>1.4</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3507,16 +3525,16 @@
         <v>1.8</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3527,19 +3545,19 @@
         <v>2.3</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3550,16 +3568,16 @@
         <v>2.4</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3570,19 +3588,19 @@
         <v>3.9</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3593,19 +3611,19 @@
         <v>2.1</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3616,19 +3634,19 @@
         <v>1.4</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3639,19 +3657,19 @@
         <v>2.8</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3662,19 +3680,19 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3685,19 +3703,19 @@
         <v>2.1</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3708,19 +3726,19 @@
         <v>2.1</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3731,19 +3749,19 @@
         <v>1.6</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3754,1750 +3772,1750 @@
         <v>1.4</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>1.9</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
         <v>149</v>
       </c>
-      <c r="F45" t="s">
-        <v>147</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>5.4</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" t="s">
         <v>149</v>
       </c>
-      <c r="F46" t="s">
-        <v>147</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>3.3</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>1.3</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>3.5</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>1.4</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>1.3</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>4.6</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>2.3</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>1.1</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>1.5</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>3.4</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>1.3</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>2.2</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>6.4</v>
       </c>
       <c r="C59" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>1.5</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>1.4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B63">
         <v>2.4</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>3.2</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>1.3</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>1.1</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>1.3</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>1.8</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>1.5</v>
       </c>
       <c r="C69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>1.9</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>1.1</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>1.7</v>
       </c>
       <c r="C72" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>1.4</v>
       </c>
       <c r="C73" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>1.7</v>
       </c>
       <c r="C74" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>1.4</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>4.8</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>1.2</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>2.9</v>
       </c>
       <c r="C79" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>1.1</v>
       </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>2.4</v>
       </c>
       <c r="C81" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>2.8</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>5.5</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>2.9</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>1.6</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>2.2</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <v>2.7</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89">
         <v>2.6</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>5.7</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91">
         <v>5.7</v>
       </c>
       <c r="C91" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92">
         <v>2.3</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94">
         <v>1.4</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E94" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96">
         <v>1.4</v>
       </c>
       <c r="C96" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97">
         <v>1.4</v>
       </c>
       <c r="C97" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E97" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B98">
         <v>1.8</v>
       </c>
       <c r="C98" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99">
         <v>2.1</v>
       </c>
       <c r="C99" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D100" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" t="s">
         <v>159</v>
       </c>
-      <c r="E100" t="s">
-        <v>157</v>
-      </c>
       <c r="F100" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101">
         <v>2.4</v>
       </c>
       <c r="C101" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G101" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E103" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G103" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104">
         <v>1.1</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G105" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E107" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E108" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D109" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E109" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B111">
         <v>1.1</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B112">
         <v>1.3</v>
       </c>
       <c r="C112" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E113" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B114">
         <v>1.1</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E114" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D115" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E115" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B116">
         <v>1.1</v>
       </c>
       <c r="C116" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D116" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E117" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D118" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E118" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B119">
         <v>1.2</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E119" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B120">
         <v>1.2</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E120" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B121">
         <v>1.1</v>
       </c>
       <c r="C121" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E121" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B122">
         <v>2.1</v>
       </c>
       <c r="C122" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E122" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5574,7 +5592,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -5582,18 +5600,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
   <si>
     <t>组件名称</t>
   </si>
@@ -108,6 +108,15 @@
     <t>do_Bitmap</t>
   </si>
   <si>
+    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Bitmap.htm</t>
+  </si>
+  <si>
+    <t>祝钰</t>
+  </si>
+  <si>
+    <t>http://ohtf3vllq.bkt.clouddn.com/do_Bitmap.zip</t>
+  </si>
+  <si>
     <t>do_Bluetooth</t>
   </si>
   <si>
@@ -174,9 +183,6 @@
     <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Global.htm</t>
   </si>
   <si>
-    <t>祝钰</t>
-  </si>
-  <si>
     <t>http://ohtf3vllq.bkt.clouddn.com/do_Global.zip</t>
   </si>
   <si>
@@ -237,6 +243,12 @@
     <t>do_MarqueeLabel</t>
   </si>
   <si>
+    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_MarqueeLabel.htm</t>
+  </si>
+  <si>
+    <t>http://ohtf3vllq.bkt.clouddn.com/do_MarqueeLabel.zip</t>
+  </si>
+  <si>
     <t>do_MultiSelectComboBox</t>
   </si>
   <si>
@@ -279,6 +291,12 @@
     <t>do_QRCode</t>
   </si>
   <si>
+    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_QRCode.htm</t>
+  </si>
+  <si>
+    <t>http://ohtf3vllq.bkt.clouddn.com/do_QRCode.zip</t>
+  </si>
+  <si>
     <t>do_RichLabel</t>
   </si>
   <si>
@@ -316,6 +334,12 @@
   </si>
   <si>
     <t>do_Storage</t>
+  </si>
+  <si>
+    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Storage.htm</t>
+  </si>
+  <si>
+    <t>http://ohtf3vllq.bkt.clouddn.com/do_Storage.zip</t>
   </si>
   <si>
     <t>do_SwitchView</t>
@@ -1078,9 +1102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1108,6 +1132,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1115,8 +1163,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,59 +1231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1199,16 +1239,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,25 +1261,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1259,6 +1283,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1271,7 +1301,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,31 +1385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,55 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,37 +1415,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,31 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,26 +1491,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,9 +1539,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,15 +1586,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1570,10 +1594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1582,16 +1606,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1600,115 +1624,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1725,22 +1749,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -2064,759 +2088,803 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="24.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="77.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:9">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
-        <v>29</v>
+      <c r="A22" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
+      <c r="A23" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
-        <v>31</v>
+      <c r="A24" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>32</v>
+      <c r="A25" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
-        <v>33</v>
+      <c r="A26" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
-        <v>34</v>
+      <c r="A27" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
-        <v>35</v>
+      <c r="A28" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
-        <v>36</v>
+      <c r="A29" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
-        <v>37</v>
+      <c r="A30" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
-        <v>38</v>
+      <c r="A31" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="7" t="s">
-        <v>39</v>
+      <c r="A32" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="7" t="s">
-        <v>40</v>
+      <c r="A33" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="7" t="s">
-        <v>41</v>
+      <c r="A34" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>42</v>
+      <c r="A35" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
-        <v>43</v>
+      <c r="A36" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>44</v>
+      <c r="A37" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
-        <v>45</v>
+      <c r="A38" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
-        <v>46</v>
+      <c r="A39" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
-        <v>47</v>
+      <c r="A40" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="7" t="s">
-        <v>48</v>
+      <c r="A41" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="7" t="s">
-        <v>49</v>
+      <c r="A42" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="F42" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
-        <v>53</v>
+      <c r="A43" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
-        <v>54</v>
+      <c r="A44" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="7" t="s">
-        <v>55</v>
+      <c r="A45" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
-        <v>56</v>
+      <c r="A46" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
-        <v>57</v>
+      <c r="A47" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
-        <v>58</v>
+      <c r="A48" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
-        <v>59</v>
+      <c r="A49" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
-        <v>60</v>
+      <c r="A50" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
-        <v>61</v>
+      <c r="A51" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
-        <v>62</v>
+      <c r="A52" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="7" t="s">
-        <v>63</v>
+      <c r="A53" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="7" t="s">
-        <v>64</v>
+      <c r="A54" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="7" t="s">
-        <v>65</v>
+      <c r="A55" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="7" t="s">
-        <v>66</v>
+      <c r="A56" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="7" t="s">
-        <v>67</v>
+      <c r="A57" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="7" t="s">
-        <v>68</v>
+      <c r="A58" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="7" t="s">
-        <v>69</v>
+      <c r="A59" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7" t="s">
-        <v>71</v>
+      <c r="A60" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="7" t="s">
-        <v>72</v>
+      <c r="A62" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="7" t="s">
-        <v>73</v>
+      <c r="A63" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="7" t="s">
-        <v>74</v>
+      <c r="A64" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
-        <v>75</v>
+      <c r="A65" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:9">
-      <c r="A66" s="7" t="s">
-        <v>76</v>
+      <c r="A66" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="F66" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="F66" s="3"/>
       <c r="G66" t="s">
-        <v>51</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="7" t="s">
-        <v>79</v>
+      <c r="A67" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="7" t="s">
-        <v>80</v>
+      <c r="A68" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="7" t="s">
-        <v>81</v>
+      <c r="A69" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="7" t="s">
-        <v>82</v>
+      <c r="A70" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="7" t="s">
-        <v>83</v>
+      <c r="A71" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7" t="s">
-        <v>85</v>
+      <c r="A72" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="7" t="s">
-        <v>86</v>
+      <c r="A74" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="7" t="s">
-        <v>87</v>
+      <c r="A75" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="7" t="s">
-        <v>88</v>
+      <c r="A76" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="7" t="s">
-        <v>89</v>
+      <c r="A77" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="7" t="s">
-        <v>90</v>
+      <c r="A78" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="7" t="s">
-        <v>91</v>
+      <c r="A79" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="7" t="s">
-        <v>92</v>
+      <c r="A80" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="7" t="s">
-        <v>93</v>
+      <c r="A81" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="7" t="s">
-        <v>94</v>
+      <c r="A82" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="7" t="s">
-        <v>95</v>
+      <c r="A83" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="7" t="s">
-        <v>96</v>
+      <c r="A84" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="7" t="s">
-        <v>98</v>
+      <c r="A85" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="7" t="s">
-        <v>99</v>
+      <c r="A87" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="F87" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="F87" s="3"/>
       <c r="G87" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="7" t="s">
-        <v>102</v>
+      <c r="A88" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="7" t="s">
-        <v>103</v>
+      <c r="A89" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="7" t="s">
-        <v>104</v>
+      <c r="A90" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="7" t="s">
-        <v>105</v>
+      <c r="A91" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="7" t="s">
-        <v>106</v>
+      <c r="A92" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="F92" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="F92" s="3"/>
       <c r="G92" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="7" t="s">
-        <v>109</v>
+      <c r="A93" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="7" t="s">
-        <v>110</v>
+      <c r="A94" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="7" t="s">
-        <v>111</v>
+      <c r="A95" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="7" t="s">
-        <v>112</v>
+      <c r="A96" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="7" t="s">
-        <v>113</v>
+      <c r="A97" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="7" t="s">
-        <v>114</v>
+      <c r="A98" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="7" t="s">
-        <v>115</v>
+      <c r="A99" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="7" t="s">
-        <v>116</v>
+      <c r="A100" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="7" t="s">
-        <v>117</v>
+      <c r="A101" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="7" t="s">
-        <v>118</v>
+      <c r="A102" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="7" t="s">
-        <v>120</v>
+      <c r="A103" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="7" t="s">
-        <v>121</v>
+      <c r="A104" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="7" t="s">
-        <v>122</v>
+      <c r="A105" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="7" t="s">
-        <v>123</v>
+      <c r="A106" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="7" t="s">
-        <v>124</v>
+      <c r="A107" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="7" t="s">
-        <v>125</v>
+      <c r="A108" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="7" t="s">
-        <v>126</v>
+      <c r="A109" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="7" t="s">
-        <v>128</v>
+      <c r="A111" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="7" t="s">
-        <v>129</v>
+      <c r="A112" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="7" t="s">
-        <v>130</v>
+      <c r="A113" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="7" t="s">
-        <v>131</v>
+      <c r="A114" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="7" t="s">
-        <v>132</v>
+      <c r="A115" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="7" t="s">
-        <v>133</v>
+      <c r="A116" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="7" t="s">
-        <v>134</v>
+      <c r="A117" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="7" t="s">
-        <v>135</v>
+      <c r="A118" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="7" t="s">
-        <v>136</v>
+      <c r="A119" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="7" t="s">
-        <v>137</v>
+      <c r="A120" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="7" t="s">
-        <v>138</v>
+      <c r="A121" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="7" t="s">
-        <v>139</v>
+      <c r="A122" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2824,9 +2892,15 @@
     <hyperlink ref="B87" r:id="rId1" display="http://doc.deviceone.net/web/doc/detail_course/components/do_SwitchView.htm"/>
     <hyperlink ref="I87" r:id="rId2" display="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
     <hyperlink ref="B66" r:id="rId3" display="http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm"/>
-    <hyperlink ref="I66" r:id="rId4" display="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip"/>
+    <hyperlink ref="I66" r:id="rId4" display="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip"/>
     <hyperlink ref="I92" r:id="rId5" display="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip"/>
     <hyperlink ref="I42" r:id="rId6" display="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip"/>
+    <hyperlink ref="I61" r:id="rId7" display="http://ohtf3vllq.bkt.clouddn.com/do_MarqueeLabel.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_MarqueeLabel.zip"/>
+    <hyperlink ref="I73" r:id="rId8" display="http://ohtf3vllq.bkt.clouddn.com/do_QRCode.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_QRCode.zip"/>
+    <hyperlink ref="B86" r:id="rId9" display="http://doc.deviceone.net/web/doc/detail_course/components/do_Storage.htm" tooltip="http://doc.deviceone.net/web/doc/detail_course/components/do_Storage.htm"/>
+    <hyperlink ref="I86" r:id="rId10" display="http://ohtf3vllq.bkt.clouddn.com/do_Storage.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Storage.zip"/>
+    <hyperlink ref="I21" r:id="rId11" display="http://ohtf3vllq.bkt.clouddn.com/do_Bitmap.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Bitmap.zip"/>
+    <hyperlink ref="B21" r:id="rId12" display="http://doc.deviceone.net/web/doc/detail_course/components/do_Bitmap.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2839,9 +2913,9 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2856,25 +2930,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2885,16 +2959,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2905,16 +2979,16 @@
         <v>1.2</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2925,19 +2999,19 @@
         <v>1.2</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2948,19 +3022,19 @@
         <v>3.3</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2971,16 +3045,16 @@
         <v>2.1</v>
       </c>
       <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2991,16 +3065,16 @@
         <v>1.6</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3011,16 +3085,16 @@
         <v>1.1</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3031,19 +3105,19 @@
         <v>1.3</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3054,19 +3128,19 @@
         <v>2.1</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3077,19 +3151,19 @@
         <v>1.3</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3100,16 +3174,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3120,19 +3194,19 @@
         <v>1.3</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3143,19 +3217,19 @@
         <v>1.8</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3166,19 +3240,19 @@
         <v>3.3</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3189,19 +3263,19 @@
         <v>2.3</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3212,16 +3286,16 @@
         <v>1.2</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3232,19 +3306,19 @@
         <v>1.2</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3255,19 +3329,19 @@
         <v>2.3</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3278,2244 +3352,2244 @@
         <v>2.7</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B21">
         <v>1.6</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>1.1</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>1.4</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>2.8</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>1.1</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>2.7</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>1.7</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>1.4</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>1.8</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>2.3</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>2.4</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>3.9</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>2.1</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G35" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>1.4</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>2.8</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>2.1</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>2.1</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>1.6</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>1.4</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>1.9</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>5.4</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>3.3</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>1.3</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>3.5</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>1.4</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>1.3</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>4.6</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>2.3</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>1.1</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>1.5</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>3.4</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>1.3</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>2.2</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>6.4</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>1.5</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>71</v>
+      <c r="A61" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B61">
         <v>1.4</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>252</v>
+      <c r="C61" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B63">
         <v>2.4</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>3.2</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B65">
         <v>1.3</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B66">
         <v>1.1</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>1.3</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B68">
         <v>1.8</v>
       </c>
       <c r="C68" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>1.5</v>
       </c>
       <c r="C69" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>1.9</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>269</v>
+        <v>30</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>1.1</v>
       </c>
       <c r="C71" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G71" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>1.7</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G72" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>85</v>
+      <c r="A73" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B73">
         <v>1.4</v>
       </c>
       <c r="C73" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B74">
         <v>1.7</v>
       </c>
       <c r="C74" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B75">
         <v>1.4</v>
       </c>
       <c r="C75" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E75" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E76" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B77">
         <v>4.8</v>
       </c>
       <c r="C77" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B78">
         <v>1.2</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B79">
         <v>2.9</v>
       </c>
       <c r="C79" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B80">
         <v>1.1</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B81">
         <v>2.4</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B82">
         <v>2.8</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B83">
         <v>5.5</v>
       </c>
       <c r="C83" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B85">
         <v>2.9</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B86">
         <v>1.6</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B87">
         <v>2.2</v>
       </c>
       <c r="C87" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>2.7</v>
       </c>
       <c r="C88" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>2.6</v>
       </c>
       <c r="C89" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E89" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>5.7</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D90" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E90" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>5.7</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>2.3</v>
       </c>
       <c r="C92" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D93" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E93" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B94">
         <v>1.4</v>
       </c>
       <c r="C94" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D95" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B96">
         <v>1.4</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E96" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B97">
         <v>1.4</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E97" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B98">
         <v>1.8</v>
       </c>
       <c r="C98" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B99">
         <v>2.1</v>
       </c>
       <c r="C99" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E99" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B101">
         <v>2.4</v>
       </c>
       <c r="C101" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E101" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G103" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B104">
         <v>1.1</v>
       </c>
       <c r="C104" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D104" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E105" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D107" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E107" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E108" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E109" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D110" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E110" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B111">
         <v>1.1</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B112">
         <v>1.3</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D113" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E113" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B114">
         <v>1.1</v>
       </c>
       <c r="C114" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D115" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B116">
         <v>1.1</v>
       </c>
       <c r="C116" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D116" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D118" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E118" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B119">
         <v>1.2</v>
       </c>
       <c r="C119" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E119" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B120">
         <v>1.2</v>
       </c>
       <c r="C120" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D120" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B121">
         <v>1.1</v>
       </c>
       <c r="C121" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E121" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B122">
         <v>2.1</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E122" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5592,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -5600,18 +5674,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1102,10 +1102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1133,15 +1133,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1157,22 +1172,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,40 +1199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,14 +1216,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1260,9 +1261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,60 +1301,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1367,7 +1313,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,13 +1367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,13 +1397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,37 +1439,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,12 +1479,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1486,24 +1486,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1539,26 +1521,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,6 +1546,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1594,10 +1594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1606,16 +1606,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1624,115 +1624,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2087,8 +2087,8 @@
   <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
@@ -2912,10 +2912,10 @@
   <sheetPr/>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3434,7 +3434,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B24">
@@ -3500,7 +3500,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B27">
@@ -3569,7 +3569,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B30">
@@ -3585,7 +3585,7 @@
         <v>159</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>207</v>
@@ -3655,7 +3655,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34">
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B37">
@@ -3747,7 +3747,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B38">
@@ -3793,7 +3793,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B40">
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B42">
@@ -3862,7 +3862,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B43">
@@ -3971,7 +3971,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B48">
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B55">
@@ -4149,7 +4149,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B56">
@@ -4241,7 +4241,7 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B60">
@@ -4287,7 +4287,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B62">
@@ -4310,7 +4310,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B63">
@@ -4333,7 +4333,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B64">
@@ -4402,7 +4402,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B67">
@@ -4553,7 +4553,7 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B74">

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
   <si>
     <t>组件名称</t>
   </si>
@@ -108,81 +108,75 @@
     <t>do_Bitmap</t>
   </si>
   <si>
-    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Bitmap.htm</t>
+    <t>do_Bluetooth</t>
+  </si>
+  <si>
+    <t>do_BorderView</t>
+  </si>
+  <si>
+    <t>do_Button</t>
+  </si>
+  <si>
+    <t>do_CacheManager</t>
+  </si>
+  <si>
+    <t>do_Calendar</t>
+  </si>
+  <si>
+    <t>do_Camera</t>
+  </si>
+  <si>
+    <t>do_CheckBox</t>
+  </si>
+  <si>
+    <t>do_ComboBox</t>
+  </si>
+  <si>
+    <t>do_Contact</t>
+  </si>
+  <si>
+    <t>do_CoverFlowView</t>
+  </si>
+  <si>
+    <t>do_DataCache</t>
+  </si>
+  <si>
+    <t>do_DateTimePicker</t>
+  </si>
+  <si>
+    <t>do_Device</t>
+  </si>
+  <si>
+    <t>do_Dialog</t>
+  </si>
+  <si>
+    <t>do_Easemob</t>
+  </si>
+  <si>
+    <t>do_ExpandableListView</t>
+  </si>
+  <si>
+    <t>do_External</t>
+  </si>
+  <si>
+    <t>do_FragmentView</t>
+  </si>
+  <si>
+    <t>do_FrameAnimationView</t>
+  </si>
+  <si>
+    <t>do_GestureView</t>
+  </si>
+  <si>
+    <t>do_Global</t>
+  </si>
+  <si>
+    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Global.htm</t>
   </si>
   <si>
     <t>祝钰</t>
   </si>
   <si>
-    <t>http://ohtf3vllq.bkt.clouddn.com/do_Bitmap.zip</t>
-  </si>
-  <si>
-    <t>do_Bluetooth</t>
-  </si>
-  <si>
-    <t>do_BorderView</t>
-  </si>
-  <si>
-    <t>do_Button</t>
-  </si>
-  <si>
-    <t>do_CacheManager</t>
-  </si>
-  <si>
-    <t>do_Calendar</t>
-  </si>
-  <si>
-    <t>do_Camera</t>
-  </si>
-  <si>
-    <t>do_CheckBox</t>
-  </si>
-  <si>
-    <t>do_ComboBox</t>
-  </si>
-  <si>
-    <t>do_Contact</t>
-  </si>
-  <si>
-    <t>do_CoverFlowView</t>
-  </si>
-  <si>
-    <t>do_DataCache</t>
-  </si>
-  <si>
-    <t>do_DateTimePicker</t>
-  </si>
-  <si>
-    <t>do_Device</t>
-  </si>
-  <si>
-    <t>do_Dialog</t>
-  </si>
-  <si>
-    <t>do_Easemob</t>
-  </si>
-  <si>
-    <t>do_ExpandableListView</t>
-  </si>
-  <si>
-    <t>do_External</t>
-  </si>
-  <si>
-    <t>do_FragmentView</t>
-  </si>
-  <si>
-    <t>do_FrameAnimationView</t>
-  </si>
-  <si>
-    <t>do_GestureView</t>
-  </si>
-  <si>
-    <t>do_Global</t>
-  </si>
-  <si>
-    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Global.htm</t>
-  </si>
-  <si>
     <t>http://ohtf3vllq.bkt.clouddn.com/do_Global.zip</t>
   </si>
   <si>
@@ -243,12 +237,6 @@
     <t>do_MarqueeLabel</t>
   </si>
   <si>
-    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_MarqueeLabel.htm</t>
-  </si>
-  <si>
-    <t>http://ohtf3vllq.bkt.clouddn.com/do_MarqueeLabel.zip</t>
-  </si>
-  <si>
     <t>do_MultiSelectComboBox</t>
   </si>
   <si>
@@ -291,12 +279,6 @@
     <t>do_QRCode</t>
   </si>
   <si>
-    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_QRCode.htm</t>
-  </si>
-  <si>
-    <t>http://ohtf3vllq.bkt.clouddn.com/do_QRCode.zip</t>
-  </si>
-  <si>
     <t>do_RichLabel</t>
   </si>
   <si>
@@ -334,12 +316,6 @@
   </si>
   <si>
     <t>do_Storage</t>
-  </si>
-  <si>
-    <t>http://doc.deviceone.net/web/doc/detail_course/components/do_Storage.htm</t>
-  </si>
-  <si>
-    <t>http://ohtf3vllq.bkt.clouddn.com/do_Storage.zip</t>
   </si>
   <si>
     <t>do_SwitchView</t>
@@ -1102,10 +1078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1132,9 +1108,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,82 +1230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,36 +1241,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1283,12 +1259,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1296,6 +1266,120 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,43 +1397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,85 +1421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,25 +1445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,6 +1462,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1523,7 +1525,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,34 +1548,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,8 +1557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,10 +1570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1606,16 +1582,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1624,115 +1600,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1749,22 +1725,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -2087,804 +2063,760 @@
   <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="77.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="2" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="8" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="8" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="8" t="s">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="8" t="s">
+      <c r="C42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="8" t="s">
+      <c r="I42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="s">
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="8" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="8" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="8" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="8" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="8" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="8" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="8" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="8" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="8" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="8" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="8" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="8" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="8" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="8" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="8" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="8" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="8" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" s="10" t="s">
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="8" t="s">
+    <row r="66" customFormat="1" spans="1:9">
+      <c r="A66" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="8" t="s">
+      <c r="B66" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="8" t="s">
+      <c r="C66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="8" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="1:9">
-      <c r="A66" s="8" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="10" t="s">
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="8" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="8" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="8" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="8" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="8" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="8" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="8" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" s="10" t="s">
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="8" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="8" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="8" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="8" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="8" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="8" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="8" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="8" t="s">
+    <row r="87" spans="1:9">
+      <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="8" t="s">
+      <c r="B87" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="8" t="s">
+      <c r="C87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="8" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="8" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="8" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="10" t="s">
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
-      <c r="I86" s="10" t="s">
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="8" t="s">
+      <c r="B92" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="C92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" s="10" t="s">
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="8" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="8" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="8" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="8" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="8" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" t="s">
-        <v>30</v>
-      </c>
-      <c r="I92" s="10" t="s">
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="8" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="8" t="s">
+    <row r="102" spans="1:7">
+      <c r="A102" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="8" t="s">
+      <c r="G102" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="8" t="s">
+    <row r="103" spans="1:7">
+      <c r="A103" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="8" t="s">
+      <c r="G103" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="8" t="s">
+      <c r="G104" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="8" t="s">
+      <c r="G105" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="8" t="s">
+      <c r="G106" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="8" t="s">
+      <c r="G107" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="8" t="s">
+      <c r="G108" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G109" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="8" t="s">
+      <c r="G110" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="8" t="s">
+      <c r="G111" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="8" t="s">
+      <c r="G112" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="8" t="s">
+      <c r="G113" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="8" t="s">
+      <c r="G114" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="8" t="s">
+      <c r="G115" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="8" t="s">
+      <c r="G116" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="8" t="s">
+      <c r="G117" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="8" t="s">
+      <c r="G118" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="8" t="s">
+      <c r="G119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="8" t="s">
+      <c r="G120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="8" t="s">
+      <c r="G121" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="G122" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2892,15 +2824,9 @@
     <hyperlink ref="B87" r:id="rId1" display="http://doc.deviceone.net/web/doc/detail_course/components/do_SwitchView.htm"/>
     <hyperlink ref="I87" r:id="rId2" display="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
     <hyperlink ref="B66" r:id="rId3" display="http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm"/>
-    <hyperlink ref="I66" r:id="rId4" display="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip"/>
+    <hyperlink ref="I66" r:id="rId4" display="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip"/>
     <hyperlink ref="I92" r:id="rId5" display="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip"/>
     <hyperlink ref="I42" r:id="rId6" display="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip"/>
-    <hyperlink ref="I61" r:id="rId7" display="http://ohtf3vllq.bkt.clouddn.com/do_MarqueeLabel.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_MarqueeLabel.zip"/>
-    <hyperlink ref="I73" r:id="rId8" display="http://ohtf3vllq.bkt.clouddn.com/do_QRCode.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_QRCode.zip"/>
-    <hyperlink ref="B86" r:id="rId9" display="http://doc.deviceone.net/web/doc/detail_course/components/do_Storage.htm" tooltip="http://doc.deviceone.net/web/doc/detail_course/components/do_Storage.htm"/>
-    <hyperlink ref="I86" r:id="rId10" display="http://ohtf3vllq.bkt.clouddn.com/do_Storage.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Storage.zip"/>
-    <hyperlink ref="I21" r:id="rId11" display="http://ohtf3vllq.bkt.clouddn.com/do_Bitmap.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Bitmap.zip"/>
-    <hyperlink ref="B21" r:id="rId12" display="http://doc.deviceone.net/web/doc/detail_course/components/do_Bitmap.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2912,10 +2838,10 @@
   <sheetPr/>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2930,25 +2856,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2959,16 +2885,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2979,16 +2905,16 @@
         <v>1.2</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2999,19 +2925,19 @@
         <v>1.2</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3022,19 +2948,19 @@
         <v>3.3</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3045,16 +2971,16 @@
         <v>2.1</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3065,16 +2991,16 @@
         <v>1.6</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3085,16 +3011,16 @@
         <v>1.1</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3105,19 +3031,19 @@
         <v>1.3</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3128,19 +3054,19 @@
         <v>2.1</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3151,19 +3077,19 @@
         <v>1.3</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3174,16 +3100,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3194,19 +3120,19 @@
         <v>1.3</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3217,19 +3143,19 @@
         <v>1.8</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3240,19 +3166,19 @@
         <v>3.3</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3263,19 +3189,19 @@
         <v>2.3</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3286,16 +3212,16 @@
         <v>1.2</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3306,19 +3232,19 @@
         <v>1.2</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3329,19 +3255,19 @@
         <v>2.3</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3352,2244 +3278,2244 @@
         <v>2.7</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21">
         <v>1.6</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>1.1</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1.4</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
+      <c r="A24" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
         <v>2.8</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1.1</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
+      <c r="A27" t="s">
+        <v>34</v>
       </c>
       <c r="B27">
         <v>2.7</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>1.7</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
+      <c r="A30" t="s">
+        <v>37</v>
       </c>
       <c r="B30">
         <v>1.4</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>1.8</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>2.3</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>2.4</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>44</v>
+      <c r="A34" t="s">
+        <v>41</v>
       </c>
       <c r="B34">
         <v>3.9</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>2.1</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>1.4</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
-        <v>47</v>
+      <c r="A37" t="s">
+        <v>44</v>
       </c>
       <c r="B37">
         <v>2.8</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3" t="s">
-        <v>48</v>
+      <c r="A38" t="s">
+        <v>45</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>2.1</v>
       </c>
       <c r="C39" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
-        <v>50</v>
+      <c r="A40" t="s">
+        <v>47</v>
       </c>
       <c r="B40">
         <v>2.1</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>1.6</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
-        <v>52</v>
+      <c r="A42" t="s">
+        <v>49</v>
       </c>
       <c r="B42">
         <v>1.4</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3" t="s">
-        <v>55</v>
+      <c r="A43" t="s">
+        <v>53</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>1.9</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>5.4</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>3.3</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3" t="s">
-        <v>60</v>
+      <c r="A48" t="s">
+        <v>58</v>
       </c>
       <c r="B48">
         <v>1.3</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>3.5</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>1.4</v>
       </c>
       <c r="C50" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>1.3</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>4.6</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>2.3</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>1.1</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="3" t="s">
-        <v>67</v>
+      <c r="A55" t="s">
+        <v>65</v>
       </c>
       <c r="B55">
         <v>1.5</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="3" t="s">
-        <v>68</v>
+      <c r="A56" t="s">
+        <v>66</v>
       </c>
       <c r="B56">
         <v>3.4</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>1.3</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>2.2</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>6.4</v>
       </c>
       <c r="C59" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="3" t="s">
-        <v>72</v>
+      <c r="A60" t="s">
+        <v>70</v>
       </c>
       <c r="B60">
         <v>1.5</v>
       </c>
       <c r="C60" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="3" t="s">
-        <v>73</v>
+      <c r="A61" t="s">
+        <v>71</v>
       </c>
       <c r="B61">
         <v>1.4</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>260</v>
+      <c r="C61" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="3" t="s">
-        <v>76</v>
+      <c r="A62" t="s">
+        <v>72</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="3" t="s">
-        <v>77</v>
+      <c r="A63" t="s">
+        <v>73</v>
       </c>
       <c r="B63">
         <v>2.4</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="3" t="s">
-        <v>78</v>
+      <c r="A64" t="s">
+        <v>74</v>
       </c>
       <c r="B64">
         <v>3.2</v>
       </c>
       <c r="C64" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>1.3</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>1.1</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3" t="s">
-        <v>83</v>
+      <c r="A67" t="s">
+        <v>79</v>
       </c>
       <c r="B67">
         <v>1.3</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>1.8</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>1.5</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D69" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>1.9</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>277</v>
+        <v>51</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>1.1</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>1.7</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="3" t="s">
-        <v>89</v>
+      <c r="A73" t="s">
+        <v>85</v>
       </c>
       <c r="B73">
         <v>1.4</v>
       </c>
       <c r="C73" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="3" t="s">
-        <v>92</v>
+      <c r="A74" t="s">
+        <v>86</v>
       </c>
       <c r="B74">
         <v>1.7</v>
       </c>
       <c r="C74" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>1.4</v>
       </c>
       <c r="C75" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D75" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>4.8</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>1.2</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>2.9</v>
       </c>
       <c r="C79" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>1.1</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D80" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>2.4</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>2.8</v>
       </c>
       <c r="C82" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>5.5</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>2.9</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>1.6</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>2.2</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D87" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <v>2.7</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B89">
         <v>2.6</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>5.7</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D90" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B91">
         <v>5.7</v>
       </c>
       <c r="C91" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B92">
         <v>2.3</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D92" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D93" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B94">
         <v>1.4</v>
       </c>
       <c r="C94" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B96">
         <v>1.4</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B97">
         <v>1.4</v>
       </c>
       <c r="C97" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E97" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B98">
         <v>1.8</v>
       </c>
       <c r="C98" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E98" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B99">
         <v>2.1</v>
       </c>
       <c r="C99" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D100" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E100" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B101">
         <v>2.4</v>
       </c>
       <c r="C101" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G101" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D103" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E103" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G103" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B104">
         <v>1.1</v>
       </c>
       <c r="C104" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D104" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G105" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D107" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E107" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E108" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D109" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E109" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D110" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E110" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B111">
         <v>1.1</v>
       </c>
       <c r="C111" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E111" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B112">
         <v>1.3</v>
       </c>
       <c r="C112" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E112" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D113" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E113" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B114">
         <v>1.1</v>
       </c>
       <c r="C114" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E114" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D115" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B116">
         <v>1.1</v>
       </c>
       <c r="C116" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D116" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E116" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D117" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E117" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D118" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E118" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B119">
         <v>1.2</v>
       </c>
       <c r="C119" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D119" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B120">
         <v>1.2</v>
       </c>
       <c r="C120" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B121">
         <v>1.1</v>
       </c>
       <c r="C121" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E121" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B122">
         <v>2.1</v>
       </c>
       <c r="C122" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E122" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +5592,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -5674,18 +5600,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -1078,10 +1078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1122,9 +1122,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,8 +1137,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,48 +1175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1214,15 +1190,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1237,10 +1230,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1250,7 +1250,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,61 +1271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,7 +1301,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,13 +1367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,7 +1391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,19 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,13 +1439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,31 +1463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,17 +1474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1492,21 +1493,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1517,15 +1503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,8 +1525,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,7 +1550,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,10 +1582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1582,16 +1594,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1600,119 +1612,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1740,7 +1752,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -2063,10 +2081,10 @@
   <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A2 A13 A15 A16 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2108,7 +2126,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2117,18 +2135,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2143,17 +2162,17 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2163,27 +2182,28 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2314,8 +2334,8 @@
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="G42" t="s">
         <v>51</v>
       </c>
@@ -2445,8 +2465,8 @@
       <c r="B66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="F66" s="10"/>
       <c r="G66" t="s">
         <v>51</v>
       </c>
@@ -2558,15 +2578,15 @@
       <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="F87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="F87" s="10"/>
       <c r="G87" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2597,12 +2617,12 @@
       <c r="B92" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="F92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="F92" s="10"/>
       <c r="G92" t="s">
         <v>51</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2839,9 +2859,9 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5589,6 +5609,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -1078,10 +1078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1109,14 +1109,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,7 +1170,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,47 +1200,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1198,32 +1215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,7 +1231,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,7 +1289,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,103 +1451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,61 +1463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,17 +1477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,6 +1501,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1518,15 +1536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1549,8 +1558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1565,15 +1574,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1582,145 +1582,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -1109,51 +1109,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1161,14 +1116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,8 +1130,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1206,24 +1168,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,7 +1207,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,7 +1250,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,13 +1277,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,31 +1379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,43 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,31 +1415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,31 +1445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,6 +1468,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1480,6 +1519,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1491,30 +1541,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1542,26 +1568,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1570,10 +1576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1582,16 +1588,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1600,119 +1606,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1738,6 +1744,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -2064,9 +2076,9 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2193,17 +2205,17 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2213,17 +2225,17 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2233,47 +2245,47 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2314,8 +2326,8 @@
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="F42" s="11"/>
       <c r="G42" t="s">
         <v>51</v>
       </c>
@@ -2445,8 +2457,8 @@
       <c r="B66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="C66" s="11"/>
+      <c r="F66" s="11"/>
       <c r="G66" t="s">
         <v>51</v>
       </c>
@@ -2558,15 +2570,15 @@
       <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="F87" s="9"/>
+      <c r="C87" s="11"/>
+      <c r="F87" s="11"/>
       <c r="G87" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2597,12 +2609,12 @@
       <c r="B92" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="F92" s="9"/>
+      <c r="C92" s="11"/>
+      <c r="F92" s="11"/>
       <c r="G92" t="s">
         <v>51</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="12" t="s">
         <v>108</v>
       </c>
     </row>

--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView xWindow="440" yWindow="720" windowWidth="8000" windowHeight="16240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="组件类型" sheetId="2" r:id="rId2"/>
     <sheet name="新增" sheetId="5" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">组件类型!$F$1:$F$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">工作表1!$A$1:$B$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">组件类型!$A$1:$G$122</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="406">
   <si>
     <t>组件名称</t>
   </si>
@@ -459,9 +466,6 @@
     <t>bbs链接</t>
   </si>
   <si>
-    <t>3DTouch</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
@@ -471,69 +475,39 @@
     <t>崔杏杏</t>
   </si>
   <si>
-    <t>加速度传感器</t>
-  </si>
-  <si>
     <t>安卓ios winph winpc</t>
   </si>
   <si>
-    <t>绝对布局</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=146&amp;extra=page%3D7</t>
   </si>
   <si>
-    <t>相册</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=177&amp;extra=page%3D3</t>
   </si>
   <si>
-    <t>常用算法</t>
-  </si>
-  <si>
     <t>支付宝支付</t>
   </si>
   <si>
     <t>安卓IOS</t>
   </si>
   <si>
-    <t>动画组合</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=176&amp;extra=page%3D7</t>
   </si>
   <si>
-    <t>属性动画组合</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=308&amp;extra=page%3D5</t>
   </si>
   <si>
-    <t>应用类</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=593&amp;extra=page%3D4</t>
   </si>
   <si>
-    <t>Apple应用内支付</t>
-  </si>
-  <si>
-    <t>辅助按钮</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=337&amp;extra=page%3D5</t>
   </si>
   <si>
-    <t>音频播放与录制</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=185&amp;extra=page%3D7</t>
   </si>
   <si>
@@ -561,57 +535,30 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=230&amp;extra=page%3D6</t>
   </si>
   <si>
-    <t>二维码扫描视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=363&amp;extra=page%3D3</t>
   </si>
   <si>
-    <t>位图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=617&amp;extra=page%3D3</t>
   </si>
   <si>
-    <t>蓝牙</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=667&amp;highlight=%E8%93%9D%E7%89%99</t>
   </si>
   <si>
-    <t>边界视图</t>
-  </si>
-  <si>
-    <t>按钮控件</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=156&amp;extra=page%3D8</t>
   </si>
   <si>
-    <t>缓存管理</t>
-  </si>
-  <si>
     <t>日历控件</t>
   </si>
   <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=553&amp;highlight=%E6%97%A5%E5%8E%86</t>
   </si>
   <si>
-    <t>照相机</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=117&amp;extra=page%3D6</t>
   </si>
   <si>
-    <t>复选框</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=157&amp;extra=page%3D8</t>
   </si>
   <si>
-    <t>组合框控件</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=160&amp;extra=page%3D8</t>
   </si>
   <si>
@@ -621,9 +568,6 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=226&amp;highlight=%E9%80%9A%E8%AE%AF%E5%BD%95</t>
   </si>
   <si>
-    <t>画廊视图</t>
-  </si>
-  <si>
     <t>数据缓存</t>
   </si>
   <si>
@@ -651,9 +595,6 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=728&amp;extra=page%3D3</t>
   </si>
   <si>
-    <t>List分组视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=284&amp;extra=page%3D1</t>
   </si>
   <si>
@@ -663,21 +604,12 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=172&amp;extra=page%3D7</t>
   </si>
   <si>
-    <t>多页面滑动视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=297&amp;extra=page%3D6</t>
   </si>
   <si>
-    <t>帧动画视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=113&amp;extra=page%3D9</t>
   </si>
   <si>
-    <t>手势组件</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=541&amp;extra=page%3D4</t>
   </si>
   <si>
@@ -687,24 +619,15 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=137&amp;extra=page%3D9</t>
   </si>
   <si>
-    <t>九宫格视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=921&amp;extra=page%3D1</t>
   </si>
   <si>
     <t>陀螺仪传感器</t>
   </si>
   <si>
-    <t>hash数据源</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=151&amp;extra=page%3D8</t>
   </si>
   <si>
-    <t>http/https请求服务</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=456&amp;extra=page%3D5</t>
   </si>
   <si>
@@ -720,21 +643,12 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=538&amp;extra=page%3D1</t>
   </si>
   <si>
-    <t>图片裁剪视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=540&amp;extra=page%3D4</t>
   </si>
   <si>
-    <t>图片控件</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=537&amp;extra=page%3D4</t>
   </si>
   <si>
-    <t>带索引的ListView</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=133&amp;extra=page%3D9</t>
   </si>
   <si>
@@ -747,27 +661,15 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1097&amp;extra=</t>
   </si>
   <si>
-    <t>标签框</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=145&amp;extra=page%3D8</t>
   </si>
   <si>
-    <t>线性布局</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=148&amp;extra=page%3D4</t>
   </si>
   <si>
-    <t>列表数据源</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=154&amp;extra=page%3D8</t>
   </si>
   <si>
-    <t>List视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=316&amp;extra=page%3D1</t>
   </si>
   <si>
@@ -777,15 +679,9 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1096&amp;extra=page%3D1</t>
   </si>
   <si>
-    <t>跑马灯标签框</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=294&amp;extra=page%3D6</t>
   </si>
   <si>
-    <t>多选框控件</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=170&amp;extra=page%3D7</t>
   </si>
   <si>
@@ -807,27 +703,15 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=171&amp;extra=page%3D7</t>
   </si>
   <si>
-    <t>手势签名</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=820&amp;extra=page%3D2</t>
   </si>
   <si>
-    <t>PDF阅读器</t>
-  </si>
-  <si>
-    <t>单选控件控件</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=844&amp;extra=page%3D2</t>
   </si>
   <si>
     <t>保利威视</t>
   </si>
   <si>
-    <t>进度条</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=630&amp;extra=page%3D3</t>
   </si>
   <si>
@@ -855,18 +739,9 @@
     <t>安卓</t>
   </si>
   <si>
-    <t>滚动视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=127&amp;extra=page%3D6</t>
   </si>
   <si>
-    <t>拖动条</t>
-  </si>
-  <si>
-    <t>滑动视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=205&amp;extra=page%3D3</t>
   </si>
   <si>
@@ -882,18 +757,9 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=221&amp;extra=page%3D6</t>
   </si>
   <si>
-    <t>左右滑动List视图</t>
-  </si>
-  <si>
-    <t>Socket请求服务</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=926&amp;extra=page%3D1</t>
   </si>
   <si>
-    <t>SQLite3数据库</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=138&amp;extra=page%3D8</t>
   </si>
   <si>
@@ -915,21 +781,12 @@
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=219&amp;extra=page%3D6</t>
   </si>
   <si>
-    <t>多行文本编辑框</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=167&amp;extra=page%3D8</t>
   </si>
   <si>
-    <t>单行文本编辑框</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=150&amp;extra=page%3D8</t>
   </si>
   <si>
-    <t>定时器</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=135&amp;extra=page%3D9</t>
   </si>
   <si>
@@ -942,34 +799,16 @@
     <t>银联支付</t>
   </si>
   <si>
-    <t>纵向滑动视图</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=285&amp;extra=page%3D6</t>
   </si>
   <si>
-    <t>视频录制</t>
-  </si>
-  <si>
-    <t>视频播放器</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=144&amp;extra=page%3D8</t>
   </si>
   <si>
-    <t>多视图切换容器</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=128&amp;extra=page%3D4</t>
   </si>
   <si>
-    <t>万普世纪广告</t>
-  </si>
-  <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=556&amp;extra=page%3D4</t>
-  </si>
-  <si>
-    <t>网页视图控件</t>
   </si>
   <si>
     <t>http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=583&amp;extra=page%3D4</t>
@@ -1072,18 +911,480 @@
       <t>confont</t>
     </r>
   </si>
+  <si>
+    <t>do_CoverFlowView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Animation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Animator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Bluetooth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ListData</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Socket</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_SQLite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_WapsAd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_3DTouch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_AccelerometerSensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Album</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_AssistiveTouch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_AppleIAP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_DateTimePicker</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Dialog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_GyroSensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ImageBrowser</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_InitData</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_LocalNotification</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Notification</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Polyv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_SangforVPN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Sensor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_TouchID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Unionpay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_CoverFlowView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_BaiduPanoramaView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_FragmentView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_FrameAnimationView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_GestureView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ImageBrowserView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ImageCropView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ImageView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_IndexListView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Label</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_LinearLayout</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ListView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_MultiSelectComboBox</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_PDFView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_Picker</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ProgressBar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ProgressBar1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ProgressBar2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_RichLabel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_RichLabel1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ScrollView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_SegmentView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_SlideListView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_SlideView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_TextField</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_VideoRecord</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_VerticalSlideView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_VideoView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_ViewShower</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_WebView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对布局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画组合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性动画组合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>位图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash数据源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http/https请求服务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket请求服务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite3数据库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>万普世纪广告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DTouch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度传感器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用算法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple应用内支付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频播放与录制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>照相机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮控件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码扫描视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合框控件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>画廊视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>List分组视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多页面滑动视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧动画视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势组件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九宫格视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片裁剪视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片预览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片控件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带索引的ListView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性布局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>List视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑马灯标签框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选框控件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势签名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF阅读器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选控件控件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本标签框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖动条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右滑动List视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_SlideView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本编辑框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单行文本编辑框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向滑动视图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频录制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_VerticalSlideView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频播放器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多视图切换容器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页视图控件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,148 +1410,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,7 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,192 +1456,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1470,271 +1475,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1755,62 +1527,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="6">
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -2071,263 +1810,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="77.5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="55.625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="F42" s="9"/>
       <c r="G42" t="s">
         <v>51</v>
       </c>
@@ -2335,130 +2072,130 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:9">
+      <c r="A65" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="1:9">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:9">
+      <c r="A66" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="C66" s="9"/>
+      <c r="F66" s="9"/>
       <c r="G66" t="s">
         <v>51</v>
       </c>
@@ -2466,205 +2203,205 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:9">
+      <c r="A67" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:9">
+      <c r="A68" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:9">
+      <c r="A69" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:9">
+      <c r="A71" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:9">
+      <c r="A72" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:9">
+      <c r="A73" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:9">
+      <c r="A74" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:9">
+      <c r="A75" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:9">
+      <c r="A76" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:9">
+      <c r="A77" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:9">
+      <c r="A78" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:9">
+      <c r="A79" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:9">
+      <c r="A80" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:9">
+      <c r="A81" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:9">
+      <c r="A82" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:9">
+      <c r="A83" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:9">
+      <c r="A84" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:9">
+      <c r="A85" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:9">
+      <c r="A86" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="11"/>
-      <c r="F87" s="11"/>
+      <c r="C87" s="9"/>
+      <c r="F87" s="9"/>
       <c r="G87" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="12" t="s">
+      <c r="I87" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:9">
+      <c r="A88" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:9">
+      <c r="A89" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:9">
+      <c r="A90" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:9">
+      <c r="A91" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B92" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="F92" s="9"/>
       <c r="G92" t="s">
         <v>51</v>
       </c>
-      <c r="I92" s="12" t="s">
+      <c r="I92" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:9">
+      <c r="A93" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:9">
+      <c r="A94" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:9">
+      <c r="A95" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="7" t="s">
+    <row r="96" spans="1:9">
+      <c r="A96" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:7">
+      <c r="A97" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:7">
+      <c r="A98" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:7">
+      <c r="A99" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:7">
+      <c r="A100" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:7">
+      <c r="A101" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -2672,7 +2409,7 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="5" t="s">
         <v>120</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -2680,7 +2417,7 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="5" t="s">
         <v>121</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -2688,7 +2425,7 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -2696,7 +2433,7 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="5" t="s">
         <v>123</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -2704,7 +2441,7 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="5" t="s">
         <v>124</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -2712,7 +2449,7 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="5" t="s">
         <v>125</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -2720,7 +2457,7 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="5" t="s">
         <v>126</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -2728,7 +2465,7 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="5" t="s">
         <v>127</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -2736,7 +2473,7 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="5" t="s">
         <v>128</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -2744,7 +2481,7 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="5" t="s">
         <v>129</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -2752,7 +2489,7 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -2760,7 +2497,7 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="5" t="s">
         <v>131</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -2768,7 +2505,7 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="5" t="s">
         <v>132</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -2776,7 +2513,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="5" t="s">
         <v>133</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -2784,7 +2521,7 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -2792,7 +2529,7 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -2800,7 +2537,7 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="5" t="s">
         <v>136</v>
       </c>
       <c r="G119" s="1" t="s">
@@ -2808,7 +2545,7 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G120" s="1" t="s">
@@ -2816,7 +2553,7 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="5" t="s">
         <v>138</v>
       </c>
       <c r="G121" s="1" t="s">
@@ -2824,7 +2561,7 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="5" t="s">
         <v>139</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -2832,38 +2569,42 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B87" r:id="rId1" display="http://doc.deviceone.net/web/doc/detail_course/components/do_SwitchView.htm"/>
-    <hyperlink ref="I87" r:id="rId2" display="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
-    <hyperlink ref="B66" r:id="rId3" display="http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm" tooltip="http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm"/>
-    <hyperlink ref="I66" r:id="rId4" display="http://ohtf3vllq.bkt.clouddn.com/do_PainterView.zip"/>
-    <hyperlink ref="I92" r:id="rId5" display="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip"/>
-    <hyperlink ref="I42" r:id="rId6" display="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip"/>
+    <hyperlink ref="B87" r:id="rId1"/>
+    <hyperlink ref="I87" r:id="rId2" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_SwitchView.zip"/>
+    <hyperlink ref="B66" r:id="rId3" tooltip="http://doc.deviceone.net/web/doc/detail_course/components/do_PainterView.htm"/>
+    <hyperlink ref="I66" r:id="rId4"/>
+    <hyperlink ref="I92" r:id="rId5" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Timer.zip"/>
+    <hyperlink ref="I42" r:id="rId6" tooltip="http://ohtf3vllq.bkt.clouddn.com/do_Global.zip"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2889,7 +2630,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2897,19 +2638,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2917,85 +2658,85 @@
         <v>1.2</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>359</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>1.2</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:7" hidden="1">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>3.3</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>2.1</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3003,108 +2744,108 @@
         <v>1.6</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>1.3</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>2.1</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11">
         <v>1.3</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>362</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3112,19 +2853,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>363</v>
       </c>
       <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
         <v>147</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3132,286 +2873,286 @@
         <v>1.3</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B14">
         <v>1.8</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15">
         <v>3.3</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B16">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B17">
         <v>1.2</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B18">
         <v>1.2</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1">
+      <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B19">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B20">
         <v>2.7</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1">
+      <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B21">
         <v>1.6</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B23">
         <v>1.4</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B24">
         <v>2.8</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>368</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1">
+      <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3419,226 +3160,226 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1">
+      <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B27">
         <v>2.7</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>367</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B28">
         <v>1.7</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>371</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>372</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
+      <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B30">
         <v>1.4</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>38</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="B31">
         <v>1.8</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>373</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1">
+      <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B32">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1">
+      <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B33">
         <v>2.4</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1">
+      <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B34">
         <v>3.9</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1">
+      <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B35">
         <v>2.1</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -3646,111 +3387,111 @@
         <v>1.4</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" t="s">
+      <c r="A37" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B37">
         <v>2.8</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1">
+      <c r="A38" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B39">
         <v>2.1</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>375</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="s">
+      <c r="A40" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B40">
         <v>2.1</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>376</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3761,22 +3502,22 @@
         <v>1.6</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3784,45 +3525,45 @@
         <v>1.4</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" t="s">
+      <c r="A43" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3830,65 +3571,65 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>357</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7" hidden="1">
+      <c r="A45" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B45">
         <v>1.9</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1">
+      <c r="A46" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B46">
         <v>5.4</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>351</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3896,19 +3637,19 @@
         <v>3.3</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3916,22 +3657,22 @@
         <v>1.3</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3939,131 +3680,131 @@
         <v>3.5</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B50">
         <v>1.4</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>380</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="s">
+      <c r="A51" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B51">
         <v>1.3</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>379</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s">
+      <c r="A52" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B52">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>381</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" t="s">
+      <c r="A53" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B53">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>382</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" t="s">
         <v>64</v>
       </c>
       <c r="B54">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -4071,114 +3812,114 @@
         <v>1.5</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" t="s">
+      <c r="A56" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B56">
         <v>3.4</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" t="s">
+      <c r="A57" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B57">
         <v>1.3</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" t="s">
         <v>68</v>
       </c>
       <c r="B58">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="s">
+      <c r="A59" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B59">
         <v>6.4</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4186,19 +3927,19 @@
         <v>1.5</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4209,19 +3950,19 @@
         <v>1.4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>252</v>
+        <v>386</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4232,22 +3973,22 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -4255,22 +3996,22 @@
         <v>2.4</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -4278,22 +4019,22 @@
         <v>3.2</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -4301,19 +4042,19 @@
         <v>1.3</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4321,25 +4062,25 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4347,13 +4088,13 @@
         <v>1.3</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>389</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>51</v>
@@ -4367,22 +4108,22 @@
         <v>1.8</v>
       </c>
       <c r="C68" t="s">
-        <v>265</v>
+        <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -4390,13 +4131,13 @@
         <v>1.5</v>
       </c>
       <c r="C69" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>51</v>
@@ -4410,19 +4151,19 @@
         <v>1.9</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>391</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>269</v>
+      <c r="G70" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4430,21 +4171,21 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G71" s="5"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -4454,20 +4195,20 @@
         <v>1.7</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -4475,19 +4216,19 @@
         <v>1.4</v>
       </c>
       <c r="C73" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4498,22 +4239,22 @@
         <v>1.7</v>
       </c>
       <c r="C74" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -4521,19 +4262,19 @@
         <v>1.4</v>
       </c>
       <c r="C75" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -4541,13 +4282,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>51</v>
@@ -4561,22 +4302,22 @@
         <v>4.8</v>
       </c>
       <c r="C77" t="s">
-        <v>278</v>
+        <v>393</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4584,13 +4325,13 @@
         <v>1.2</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>394</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>51</v>
@@ -4604,45 +4345,45 @@
         <v>2.9</v>
       </c>
       <c r="C79" t="s">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G79" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4650,22 +4391,22 @@
         <v>2.4</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4673,39 +4414,39 @@
         <v>2.8</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="B83">
         <v>5.5</v>
       </c>
       <c r="C83" t="s">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4713,22 +4454,22 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G84" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4736,22 +4477,22 @@
         <v>2.9</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4759,42 +4500,42 @@
         <v>1.6</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G86" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C87" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -4802,19 +4543,19 @@
         <v>2.7</v>
       </c>
       <c r="C88" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -4822,19 +4563,19 @@
         <v>2.6</v>
       </c>
       <c r="C89" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E89" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4845,19 +4586,19 @@
         <v>5.7</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="D90" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4868,45 +4609,45 @@
         <v>5.7</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E91" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" t="s">
         <v>106</v>
       </c>
       <c r="B92">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C92" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -4914,19 +4655,19 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" t="s">
         <v>147</v>
-      </c>
-      <c r="E93" t="s">
-        <v>148</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -4934,19 +4675,19 @@
         <v>1.4</v>
       </c>
       <c r="C94" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E94" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -4954,13 +4695,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="D95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E95" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>51</v>
@@ -4968,28 +4709,28 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>402</v>
       </c>
       <c r="B96">
         <v>1.4</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -4997,13 +4738,13 @@
         <v>1.4</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>51</v>
@@ -5017,19 +4758,19 @@
         <v>1.8</v>
       </c>
       <c r="C98" t="s">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5040,22 +4781,22 @@
         <v>2.1</v>
       </c>
       <c r="C99" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E99" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -5063,19 +4804,19 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5086,22 +4827,22 @@
         <v>2.4</v>
       </c>
       <c r="C101" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G101" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -5109,19 +4850,19 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -5129,42 +4870,42 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G103" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" t="s">
         <v>121</v>
       </c>
       <c r="B104">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C104" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="D104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -5172,22 +4913,22 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E105" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G105" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -5195,22 +4936,22 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E106" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" t="s">
         <v>124</v>
       </c>
@@ -5218,19 +4959,19 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="D107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -5238,19 +4979,19 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E108" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -5258,19 +4999,19 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E109" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -5278,39 +5019,39 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="D110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E110" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" t="s">
         <v>128</v>
       </c>
       <c r="B111">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E111" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -5318,19 +5059,19 @@
         <v>1.3</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -5338,39 +5079,39 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="D113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E113" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>131</v>
       </c>
       <c r="B114">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C114" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -5378,39 +5119,39 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="D115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
         <v>133</v>
       </c>
       <c r="B116">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C116" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="D116" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -5418,19 +5159,19 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -5438,19 +5179,19 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="D118" t="s">
+        <v>146</v>
+      </c>
+      <c r="E118" t="s">
         <v>147</v>
-      </c>
-      <c r="E118" t="s">
-        <v>148</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -5458,19 +5199,19 @@
         <v>1.2</v>
       </c>
       <c r="C119" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E119" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -5478,33 +5219,33 @@
         <v>1.2</v>
       </c>
       <c r="C120" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="D120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>138</v>
       </c>
       <c r="B121">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C121" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E121" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>119</v>
@@ -5518,93 +5259,103 @@
         <v>2.1</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E122" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F122"/>
+  <autoFilter ref="A1:G122">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="UI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="G70:G72"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G59" r:id="rId1" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=316&amp;extra=page%3D1"/>
-    <hyperlink ref="G106" r:id="rId2" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=876&amp;extra=page%3D2"/>
-    <hyperlink ref="G70" r:id="rId3" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=630&amp;extra=page%3D3"/>
-    <hyperlink ref="G21" r:id="rId4" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=617&amp;extra=page%3D3"/>
-    <hyperlink ref="G20" r:id="rId5" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=363&amp;extra=page%3D3"/>
-    <hyperlink ref="G99" r:id="rId6" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=128&amp;extra=page%3D4"/>
-    <hyperlink ref="G41" r:id="rId7" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=541&amp;extra=page%3D4"/>
-    <hyperlink ref="G100" r:id="rId8" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=556&amp;extra=page%3D4"/>
-    <hyperlink ref="G51" r:id="rId9" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=540&amp;extra=page%3D4"/>
-    <hyperlink ref="G73" r:id="rId10" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=539&amp;extra=page%3D4"/>
-    <hyperlink ref="G57" r:id="rId11" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=148&amp;extra=page%3D4"/>
-    <hyperlink ref="G46" r:id="rId12" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=456&amp;extra=page%3D5"/>
-    <hyperlink ref="G80" r:id="rId13" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=426&amp;extra=page%3D5"/>
-    <hyperlink ref="G13" r:id="rId14" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=337&amp;extra=page%3D5"/>
-    <hyperlink ref="G39" r:id="rId15" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=297&amp;extra=page%3D6"/>
-    <hyperlink ref="G61" r:id="rId16" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=294&amp;extra=page%3D6"/>
-    <hyperlink ref="G96" r:id="rId17" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=285&amp;extra=page%3D6"/>
-    <hyperlink ref="G63" r:id="rId18" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=164&amp;extra=page%3D6"/>
-    <hyperlink ref="G19" r:id="rId19" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=230&amp;extra=page%3D6"/>
-    <hyperlink ref="G89" r:id="rId20" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=219&amp;extra=page%3D6"/>
-    <hyperlink ref="G81" r:id="rId21" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=221&amp;extra=page%3D6"/>
-    <hyperlink ref="G16" r:id="rId22" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=434&amp;extra=page%3D5"/>
-    <hyperlink ref="G14" r:id="rId23" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=185&amp;extra=page%3D7"/>
-    <hyperlink ref="G9" r:id="rId24" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=176&amp;extra=page%3D7"/>
-    <hyperlink ref="G38" r:id="rId25" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=172&amp;extra=page%3D7"/>
-    <hyperlink ref="G4" r:id="rId26" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=146&amp;extra=page%3D7"/>
-    <hyperlink ref="G65" r:id="rId27" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=171&amp;extra=page%3D7"/>
-    <hyperlink ref="G62" r:id="rId28" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=170&amp;extra=page%3D7"/>
-    <hyperlink ref="G90" r:id="rId29" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=167&amp;extra=page%3D8"/>
-    <hyperlink ref="G34" r:id="rId30" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=163&amp;extra=page%3D8"/>
-    <hyperlink ref="G32" r:id="rId31" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=161&amp;extra=page%3D8"/>
-    <hyperlink ref="G29" r:id="rId32" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=160&amp;extra=page%3D8"/>
-    <hyperlink ref="G28" r:id="rId33" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=157&amp;extra=page%3D8"/>
-    <hyperlink ref="G24" r:id="rId34" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=156&amp;extra=page%3D8"/>
-    <hyperlink ref="G64" r:id="rId35" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=153&amp;extra=page%3D8"/>
-    <hyperlink ref="G91" r:id="rId36" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=150&amp;extra=page%3D8"/>
-    <hyperlink ref="G45" r:id="rId37" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=151&amp;extra=page%3D8"/>
-    <hyperlink ref="G98" r:id="rId38" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=144&amp;extra=page%3D8"/>
-    <hyperlink ref="G56" r:id="rId39" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=145&amp;extra=page%3D8"/>
-    <hyperlink ref="G85" r:id="rId40" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=138&amp;extra=page%3D8"/>
-    <hyperlink ref="G92" r:id="rId41" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=135&amp;extra=page%3D9"/>
-    <hyperlink ref="G42" r:id="rId42" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=137&amp;extra=page%3D9"/>
-    <hyperlink ref="G53" r:id="rId43" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=133&amp;extra=page%3D9"/>
-    <hyperlink ref="G40" r:id="rId44" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=113&amp;extra=page%3D9"/>
-    <hyperlink ref="G26" r:id="rId45" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=553&amp;highlight=%E6%97%A5%E5%8E%86"/>
-    <hyperlink ref="G22" r:id="rId46" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=667&amp;highlight=%E8%93%9D%E7%89%99"/>
-    <hyperlink ref="G55" r:id="rId47" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1097&amp;extra="/>
-    <hyperlink ref="G60" r:id="rId48" display="http://bbs.deviceone.net/forum.php?mod=viewthread&amp;tid=1096&amp;extra=page%3D1"/>
+    <hyperlink ref="G59" r:id="rId1"/>
+    <hyperlink ref="G106" r:id="rId2"/>
+    <hyperlink ref="G70" r:id="rId3"/>
+    <hyperlink ref="G21" r:id="rId4"/>
+    <hyperlink ref="G20" r:id="rId5"/>
+    <hyperlink ref="G99" r:id="rId6"/>
+    <hyperlink ref="G41" r:id="rId7"/>
+    <hyperlink ref="G100" r:id="rId8"/>
+    <hyperlink ref="G51" r:id="rId9"/>
+    <hyperlink ref="G73" r:id="rId10"/>
+    <hyperlink ref="G57" r:id="rId11"/>
+    <hyperlink ref="G46" r:id="rId12"/>
+    <hyperlink ref="G80" r:id="rId13"/>
+    <hyperlink ref="G13" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G61" r:id="rId16"/>
+    <hyperlink ref="G96" r:id="rId17"/>
+    <hyperlink ref="G63" r:id="rId18"/>
+    <hyperlink ref="G19" r:id="rId19"/>
+    <hyperlink ref="G89" r:id="rId20"/>
+    <hyperlink ref="G81" r:id="rId21"/>
+    <hyperlink ref="G16" r:id="rId22"/>
+    <hyperlink ref="G14" r:id="rId23"/>
+    <hyperlink ref="G9" r:id="rId24"/>
+    <hyperlink ref="G38" r:id="rId25"/>
+    <hyperlink ref="G4" r:id="rId26"/>
+    <hyperlink ref="G65" r:id="rId27"/>
+    <hyperlink ref="G62" r:id="rId28"/>
+    <hyperlink ref="G90" r:id="rId29"/>
+    <hyperlink ref="G34" r:id="rId30"/>
+    <hyperlink ref="G32" r:id="rId31"/>
+    <hyperlink ref="G29" r:id="rId32"/>
+    <hyperlink ref="G28" r:id="rId33"/>
+    <hyperlink ref="G24" r:id="rId34"/>
+    <hyperlink ref="G64" r:id="rId35"/>
+    <hyperlink ref="G91" r:id="rId36"/>
+    <hyperlink ref="G45" r:id="rId37"/>
+    <hyperlink ref="G98" r:id="rId38"/>
+    <hyperlink ref="G56" r:id="rId39"/>
+    <hyperlink ref="G85" r:id="rId40"/>
+    <hyperlink ref="G92" r:id="rId41"/>
+    <hyperlink ref="G42" r:id="rId42"/>
+    <hyperlink ref="G53" r:id="rId43"/>
+    <hyperlink ref="G40" r:id="rId44"/>
+    <hyperlink ref="G26" r:id="rId45"/>
+    <hyperlink ref="G22" r:id="rId46"/>
+    <hyperlink ref="G55" r:id="rId47"/>
+    <hyperlink ref="G60" r:id="rId48"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -5612,22 +5363,1036 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:B122"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1">
+      <c r="A5" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1">
+      <c r="A9" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1">
+      <c r="A10" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1">
+      <c r="A12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1">
+      <c r="A17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1">
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1">
+      <c r="A21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1">
+      <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1">
+      <c r="A25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1">
+      <c r="A27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1">
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1">
+      <c r="A32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1">
+      <c r="A33" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1">
+      <c r="A34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1">
+      <c r="A35" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1">
+      <c r="A38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1">
+      <c r="A44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1">
+      <c r="A45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1">
+      <c r="A46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1">
+      <c r="A49" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1">
+      <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1">
+      <c r="A58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1">
+      <c r="A60" t="s">
+        <v>307</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1">
+      <c r="A64" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1">
+      <c r="A65" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>330</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>331</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1">
+      <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>335</v>
+      </c>
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>336</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1">
+      <c r="A80" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>337</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1">
+      <c r="A84" t="s">
+        <v>294</v>
+      </c>
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1">
+      <c r="A85" t="s">
+        <v>295</v>
+      </c>
+      <c r="B85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1">
+      <c r="A93" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1">
+      <c r="A95" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>342</v>
+      </c>
+      <c r="B98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1">
+      <c r="A100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>344</v>
+      </c>
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1">
+      <c r="A112" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1">
+      <c r="A113" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1">
+      <c r="A114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1">
+      <c r="A115" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1">
+      <c r="A116" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1">
+      <c r="A117" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1">
+      <c r="A120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1">
+      <c r="A121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B122">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="UI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/新版API.xlsx
+++ b/新版API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="720" windowWidth="8000" windowHeight="16240" activeTab="1"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="21880" windowHeight="15140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="408">
   <si>
     <t>组件名称</t>
   </si>
@@ -1364,10 +1364,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>do_VerticalSlideView</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>视频播放器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1377,6 +1373,18 @@
   </si>
   <si>
     <t>网页视图控件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_MarqueeLabel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_VerticalMarqueeLabel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向跑马灯标签框</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1484,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,8 +1503,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,6 +1547,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1540,12 +1557,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2590,11 +2609,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2630,7 +2649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2669,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2693,7 +2712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -2716,7 +2735,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -2736,7 +2755,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2756,7 +2775,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2776,7 +2795,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
@@ -2799,7 +2818,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -2822,7 +2841,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -2845,7 +2864,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2865,7 +2884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2888,7 +2907,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -2911,7 +2930,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -2957,7 +2976,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
@@ -3000,7 +3019,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
@@ -3046,7 +3065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -3069,7 +3088,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3135,7 +3154,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -3178,7 +3197,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
@@ -3247,7 +3266,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
@@ -3290,7 +3309,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -3313,7 +3332,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -3333,7 +3352,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -3356,7 +3375,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -3379,7 +3398,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -3425,7 +3444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
         <v>45</v>
       </c>
@@ -3517,7 +3536,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3563,7 +3582,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3583,7 +3602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7">
       <c r="A45" s="11" t="s">
         <v>55</v>
       </c>
@@ -3606,7 +3625,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" s="11" t="s">
         <v>56</v>
       </c>
@@ -3629,7 +3648,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3649,7 +3668,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3672,7 +3691,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3784,7 +3803,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3804,7 +3823,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +3892,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
-      <c r="A58" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B58">
@@ -3919,7 +3938,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3944,7 +3963,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>405</v>
       </c>
       <c r="B61">
         <v>1.4</v>
@@ -3988,7 +4007,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -4011,7 +4030,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -4034,7 +4053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -4123,7 +4142,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -4144,7 +4163,7 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" t="s">
+      <c r="A70" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B70">
@@ -4162,12 +4181,12 @@
       <c r="F70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G70" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" t="s">
+      <c r="A71" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B71">
@@ -4185,10 +4204,10 @@
       <c r="F71" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G71" s="13"/>
+      <c r="G71" s="14"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" t="s">
+      <c r="A72" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B72">
@@ -4206,10 +4225,10 @@
       <c r="F72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" hidden="1">
-      <c r="A73" t="s">
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B73">
@@ -4232,7 +4251,7 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" t="s">
+      <c r="A74" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B74">
@@ -4255,7 +4274,7 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" t="s">
+      <c r="A75" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B75">
@@ -4274,7 +4293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -4295,7 +4314,7 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" t="s">
+      <c r="A77" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B77">
@@ -4318,7 +4337,7 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" t="s">
+      <c r="A78" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B78">
@@ -4360,7 +4379,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4383,8 +4402,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1">
-      <c r="A81" t="s">
+    <row r="81" spans="1:7">
+      <c r="A81" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B81">
@@ -4446,7 +4465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4469,7 +4488,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4492,7 +4511,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4535,7 +4554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -4555,8 +4574,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1">
-      <c r="A89" t="s">
+    <row r="89" spans="1:7">
+      <c r="A89" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B89">
@@ -4579,7 +4598,7 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" t="s">
+      <c r="A90" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B90">
@@ -4602,7 +4621,7 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" t="s">
+      <c r="A91" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B91">
@@ -4624,8 +4643,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1">
-      <c r="A92" t="s">
+    <row r="92" spans="1:7">
+      <c r="A92" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B92">
@@ -4647,8 +4666,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1">
-      <c r="A93" t="s">
+    <row r="93" spans="1:7">
+      <c r="A93" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B93">
@@ -4667,7 +4686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -4687,7 +4706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -4709,7 +4728,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="B96">
         <v>1.4</v>
@@ -4758,7 +4777,7 @@
         <v>1.8</v>
       </c>
       <c r="C98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D98" t="s">
         <v>150</v>
@@ -4781,7 +4800,7 @@
         <v>2.1</v>
       </c>
       <c r="C99" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D99" t="s">
         <v>150</v>
@@ -4796,7 +4815,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -4827,7 +4846,7 @@
         <v>2.4</v>
       </c>
       <c r="C101" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D101" t="s">
         <v>150</v>
@@ -4842,7 +4861,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -5071,7 +5090,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -5111,7 +5130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -5131,7 +5150,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -5151,7 +5170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -5171,7 +5190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -5191,7 +5210,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -5211,7 +5230,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -5231,7 +5250,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -5251,7 +5270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -5271,11 +5290,35 @@
         <v>119</v>
       </c>
     </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>406</v>
+      </c>
+      <c r="B123">
+        <v>1.4</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D123" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" t="s">
+        <v>149</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G122">
-    <filterColumn colId="3">
+    <filterColumn colId="5">
       <filters>
-        <filter val="UI"/>
+        <filter val="崔杏杏"/>
+        <filter val="祝钰"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5332,6 +5375,7 @@
     <hyperlink ref="G22" r:id="rId46"/>
     <hyperlink ref="G55" r:id="rId47"/>
     <hyperlink ref="G60" r:id="rId48"/>
+    <hyperlink ref="G123" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5348,7 +5392,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5370,7 +5414,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5400,7 +5444,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
